--- a/files/export/financial/2 还款单.xlsx
+++ b/files/export/financial/2 还款单.xlsx
@@ -358,27 +358,27 @@
     <row r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>PB1807260001</t>
+          <t>PB1807250001</t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t>孙思伟</t>
+          <t>向前</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t>15993</t>
+          <t>15980</t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>运营中心</t>
+          <t>人力资源部</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
@@ -410,7 +410,7 @@
         <v>0.0</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>326.0</v>
+        <v>582.28</v>
       </c>
       <c r="M3" s="4" t="inlineStr">
         <is>
@@ -424,7 +424,7 @@
       </c>
       <c r="O3" s="4" t="inlineStr">
         <is>
-          <t>5月21日孙思伟转至公司基本户326元，归还借款剩余部分</t>
+          <t>还款</t>
         </is>
       </c>
       <c r="P3" s="4" t="inlineStr">
@@ -439,22 +439,22 @@
       </c>
       <c r="R3" s="4" t="inlineStr">
         <is>
-          <t>sunsw@zhonghui.com</t>
+          <t>向前</t>
         </is>
       </c>
       <c r="S3" s="4" t="inlineStr">
         <is>
-          <t>孙思伟</t>
+          <t>向前</t>
         </is>
       </c>
       <c r="T3" s="4" t="inlineStr">
         <is>
-          <t>2018-07-26 09:40:31</t>
+          <t>2018-07-25 15:43:22</t>
         </is>
       </c>
       <c r="U3" s="4" t="inlineStr">
         <is>
-          <t>2018-07-26 09:40:31</t>
+          <t>2018-07-25 15:43:22</t>
         </is>
       </c>
       <c r="V3" s="4" t="inlineStr">
@@ -476,27 +476,27 @@
     <row r="4">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>PB1807260002</t>
+          <t>PB1807250002</t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t>李欣</t>
+          <t>孙杰</t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t>15980</t>
+          <t>15993</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>人力资源部</t>
+          <t>运营中心</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
@@ -528,7 +528,7 @@
         <v>0.0</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>602.0</v>
+        <v>1156.3</v>
       </c>
       <c r="M4" s="4" t="inlineStr">
         <is>
@@ -542,7 +542,7 @@
       </c>
       <c r="O4" s="4" t="inlineStr">
         <is>
-          <t>培训场地费及餐费借款1500元，实际使用898元；</t>
+          <t>项目开票预借12000，实际使用10843.7</t>
         </is>
       </c>
       <c r="P4" s="4" t="inlineStr">
@@ -557,22 +557,22 @@
       </c>
       <c r="R4" s="4" t="inlineStr">
         <is>
-          <t>lx@zhonghui.com</t>
+          <t>sunj@zhonghui.com</t>
         </is>
       </c>
       <c r="S4" s="4" t="inlineStr">
         <is>
-          <t>李欣</t>
+          <t>孙杰</t>
         </is>
       </c>
       <c r="T4" s="4" t="inlineStr">
         <is>
-          <t>2018-07-26 14:02:57</t>
+          <t>2018-07-25 16:06:22</t>
         </is>
       </c>
       <c r="U4" s="4" t="inlineStr">
         <is>
-          <t>2018-07-26 14:02:57</t>
+          <t>2018-07-25 16:06:22</t>
         </is>
       </c>
       <c r="V4" s="4" t="inlineStr">
@@ -594,27 +594,27 @@
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>PB1807260003</t>
+          <t>PB1807260001</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t>向前</t>
+          <t>孙思伟</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t>15980</t>
+          <t>15993</t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>人力资源部</t>
+          <t>运营中心</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
@@ -646,7 +646,7 @@
         <v>0.0</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>196.0</v>
+        <v>326.0</v>
       </c>
       <c r="M5" s="4" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
       </c>
       <c r="O5" s="4" t="inlineStr">
         <is>
-          <t>归还借款</t>
+          <t>5月21日孙思伟转至公司基本户326元，归还借款剩余部分</t>
         </is>
       </c>
       <c r="P5" s="4" t="inlineStr">
@@ -675,22 +675,22 @@
       </c>
       <c r="R5" s="4" t="inlineStr">
         <is>
-          <t>向前</t>
+          <t>sunsw@zhonghui.com</t>
         </is>
       </c>
       <c r="S5" s="4" t="inlineStr">
         <is>
-          <t>向前</t>
+          <t>孙思伟</t>
         </is>
       </c>
       <c r="T5" s="4" t="inlineStr">
         <is>
-          <t>2018-07-26 14:05:56</t>
+          <t>2018-07-26 09:40:31</t>
         </is>
       </c>
       <c r="U5" s="4" t="inlineStr">
         <is>
-          <t>2018-07-26 14:08:03</t>
+          <t>2018-07-26 09:40:31</t>
         </is>
       </c>
       <c r="V5" s="4" t="inlineStr">
@@ -712,27 +712,27 @@
     <row r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>PB1807300001</t>
+          <t>PB1807260002</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t>郑伟</t>
+          <t>李欣</t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t>15979</t>
+          <t>15980</t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>总经办</t>
+          <t>人力资源部</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
@@ -764,7 +764,7 @@
         <v>0.0</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>92.0</v>
+        <v>602.0</v>
       </c>
       <c r="M6" s="4" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
       </c>
       <c r="O6" s="4" t="inlineStr">
         <is>
-          <t>剩余92元归还公司</t>
+          <t>培训场地费及餐费借款1500元，实际使用898元；</t>
         </is>
       </c>
       <c r="P6" s="4" t="inlineStr">
@@ -793,22 +793,22 @@
       </c>
       <c r="R6" s="4" t="inlineStr">
         <is>
-          <t>zw@zhonghui.com</t>
+          <t>lx@zhonghui.com</t>
         </is>
       </c>
       <c r="S6" s="4" t="inlineStr">
         <is>
-          <t>郑伟</t>
+          <t>李欣</t>
         </is>
       </c>
       <c r="T6" s="4" t="inlineStr">
         <is>
-          <t>2018-07-30 15:33:08</t>
+          <t>2018-07-26 14:02:57</t>
         </is>
       </c>
       <c r="U6" s="4" t="inlineStr">
         <is>
-          <t>2018-07-30 15:33:08</t>
+          <t>2018-07-26 14:02:57</t>
         </is>
       </c>
       <c r="V6" s="4" t="inlineStr">
@@ -830,27 +830,27 @@
     <row r="7">
       <c r="A7" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>PB1808070002</t>
+          <t>PB1807260003</t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>胡宁</t>
+          <t>向前</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t>15979</t>
+          <t>15980</t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>总经办</t>
+          <t>人力资源部</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
@@ -882,7 +882,7 @@
         <v>0.0</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>3000.0</v>
+        <v>196.0</v>
       </c>
       <c r="M7" s="4" t="inlineStr">
         <is>
@@ -896,7 +896,7 @@
       </c>
       <c r="O7" s="4" t="inlineStr">
         <is>
-          <t>品牌公司人员费用招待</t>
+          <t>归还借款</t>
         </is>
       </c>
       <c r="P7" s="4" t="inlineStr">
@@ -911,22 +911,22 @@
       </c>
       <c r="R7" s="4" t="inlineStr">
         <is>
-          <t>胡宁</t>
+          <t>向前</t>
         </is>
       </c>
       <c r="S7" s="4" t="inlineStr">
         <is>
-          <t>胡宁</t>
+          <t>向前</t>
         </is>
       </c>
       <c r="T7" s="4" t="inlineStr">
         <is>
-          <t>2018-08-07 09:24:17</t>
+          <t>2018-07-26 14:05:56</t>
         </is>
       </c>
       <c r="U7" s="4" t="inlineStr">
         <is>
-          <t>2018-08-07 09:24:17</t>
+          <t>2018-07-26 14:08:03</t>
         </is>
       </c>
       <c r="V7" s="4" t="inlineStr">
@@ -948,27 +948,27 @@
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>PB1808070003</t>
+          <t>PB1807270001</t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t>会昌县公共资源交易中心</t>
+          <t>葛海玲</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t>16003</t>
+          <t>15980</t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>湖北分部</t>
+          <t>人力资源部</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
@@ -1000,7 +1000,7 @@
         <v>0.0</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>22000.0</v>
+        <v>251.0</v>
       </c>
       <c r="M8" s="4" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
       </c>
       <c r="O8" s="4" t="inlineStr">
         <is>
-          <t>补还款流程。</t>
+          <t>今年1月份充值公司话费剩余款项以缴换财务</t>
         </is>
       </c>
       <c r="P8" s="4" t="inlineStr">
@@ -1029,22 +1029,22 @@
       </c>
       <c r="R8" s="4" t="inlineStr">
         <is>
-          <t>sunsw@zhonghui.com</t>
+          <t>ghl@zhonghui.com</t>
         </is>
       </c>
       <c r="S8" s="4" t="inlineStr">
         <is>
-          <t>孙思伟</t>
+          <t>葛海玲</t>
         </is>
       </c>
       <c r="T8" s="4" t="inlineStr">
         <is>
-          <t>2018-08-07 11:51:43</t>
+          <t>2018-07-27 14:50:17</t>
         </is>
       </c>
       <c r="U8" s="4" t="inlineStr">
         <is>
-          <t>2018-08-07 11:51:43</t>
+          <t>2018-07-27 14:50:17</t>
         </is>
       </c>
       <c r="V8" s="4" t="inlineStr">
@@ -1066,27 +1066,27 @@
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>PB1810160001</t>
+          <t>PB1807300001</t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t>聂耀红</t>
+          <t>郑伟</t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t>16003</t>
+          <t>15979</t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>湖北分部</t>
+          <t>总经办</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
@@ -1118,7 +1118,7 @@
         <v>0.0</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>32000.0</v>
+        <v>92.0</v>
       </c>
       <c r="M9" s="4" t="inlineStr">
         <is>
@@ -1132,7 +1132,7 @@
       </c>
       <c r="O9" s="4" t="inlineStr">
         <is>
-          <t>归还江西省交通建设工程质量监督管理局弱电智能化系统安装工程鲜蘑菇投标贷32000</t>
+          <t>剩余92元归还公司</t>
         </is>
       </c>
       <c r="P9" s="4" t="inlineStr">
@@ -1147,22 +1147,22 @@
       </c>
       <c r="R9" s="4" t="inlineStr">
         <is>
-          <t>gaol@zhonghui.com</t>
+          <t>zw@zhonghui.com</t>
         </is>
       </c>
       <c r="S9" s="4" t="inlineStr">
         <is>
-          <t>高磊</t>
+          <t>郑伟</t>
         </is>
       </c>
       <c r="T9" s="4" t="inlineStr">
         <is>
-          <t>2018-10-16 13:50:04</t>
+          <t>2018-07-30 15:33:08</t>
         </is>
       </c>
       <c r="U9" s="4" t="inlineStr">
         <is>
-          <t>2018-10-16 13:50:04</t>
+          <t>2018-07-30 15:33:08</t>
         </is>
       </c>
       <c r="V9" s="4" t="inlineStr">
@@ -1184,27 +1184,27 @@
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>PB1811160001</t>
+          <t>PB1808070001</t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t>山东分公司</t>
+          <t>戴家敏</t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t>16000</t>
+          <t>15980</t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t>山东分部</t>
+          <t>人力资源部</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
@@ -1236,7 +1236,7 @@
         <v>0.0</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>241120.0</v>
+        <v>748.52</v>
       </c>
       <c r="M10" s="4" t="inlineStr">
         <is>
@@ -1250,7 +1250,7 @@
       </c>
       <c r="O10" s="4" t="inlineStr">
         <is>
-          <t>山东分公司共管户于2018.11.14转至基本户</t>
+          <t>公司员工年会、过年福利、优秀员工表彰（详见附件）</t>
         </is>
       </c>
       <c r="P10" s="4" t="inlineStr">
@@ -1265,22 +1265,22 @@
       </c>
       <c r="R10" s="4" t="inlineStr">
         <is>
-          <t>范甜甜</t>
+          <t>戴家敏</t>
         </is>
       </c>
       <c r="S10" s="4" t="inlineStr">
         <is>
-          <t>范甜甜</t>
+          <t>戴家敏</t>
         </is>
       </c>
       <c r="T10" s="4" t="inlineStr">
         <is>
-          <t>2018-11-16 10:51:15</t>
+          <t>2018-08-07 08:58:19</t>
         </is>
       </c>
       <c r="U10" s="4" t="inlineStr">
         <is>
-          <t>2018-11-16 10:51:15</t>
+          <t>2018-08-07 09:20:26</t>
         </is>
       </c>
       <c r="V10" s="4" t="inlineStr">
@@ -1302,27 +1302,27 @@
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>PB1811130001</t>
+          <t>PB1808070002</t>
         </is>
       </c>
       <c r="C11" s="4" t="inlineStr">
         <is>
-          <t>湖北分公司</t>
+          <t>胡宁</t>
         </is>
       </c>
       <c r="D11" s="4" t="inlineStr">
         <is>
-          <t>16003</t>
+          <t>15979</t>
         </is>
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>湖北分部</t>
+          <t>总经办</t>
         </is>
       </c>
       <c r="F11" s="4" t="inlineStr">
@@ -1354,7 +1354,7 @@
         <v>0.0</v>
       </c>
       <c r="L11" s="4" t="n">
-        <v>50000.0</v>
+        <v>3000.0</v>
       </c>
       <c r="M11" s="4" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
       </c>
       <c r="O11" s="4" t="inlineStr">
         <is>
-          <t>归还宜昌市伍家岗区“三馆三中心”暖通工程投标保证金</t>
+          <t>品牌公司人员费用招待</t>
         </is>
       </c>
       <c r="P11" s="4" t="inlineStr">
@@ -1383,22 +1383,22 @@
       </c>
       <c r="R11" s="4" t="inlineStr">
         <is>
-          <t>gaol@zhonghui.com</t>
+          <t>胡宁</t>
         </is>
       </c>
       <c r="S11" s="4" t="inlineStr">
         <is>
-          <t>高磊</t>
+          <t>胡宁</t>
         </is>
       </c>
       <c r="T11" s="4" t="inlineStr">
         <is>
-          <t>2018-11-13 09:47:15</t>
+          <t>2018-08-07 09:24:17</t>
         </is>
       </c>
       <c r="U11" s="4" t="inlineStr">
         <is>
-          <t>2018-11-13 09:47:15</t>
+          <t>2018-08-07 09:24:17</t>
         </is>
       </c>
       <c r="V11" s="4" t="inlineStr">
@@ -1420,27 +1420,27 @@
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B12" s="4" t="inlineStr">
         <is>
-          <t>PB1811220001</t>
+          <t>PB1808070003</t>
         </is>
       </c>
       <c r="C12" s="4" t="inlineStr">
         <is>
-          <t>魏文早</t>
+          <t>会昌县公共资源交易中心</t>
         </is>
       </c>
       <c r="D12" s="4" t="inlineStr">
         <is>
-          <t>15982</t>
+          <t>16003</t>
         </is>
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
-          <t>安徽分部</t>
+          <t>湖北分部</t>
         </is>
       </c>
       <c r="F12" s="4" t="inlineStr">
@@ -1472,7 +1472,7 @@
         <v>0.0</v>
       </c>
       <c r="L12" s="4" t="n">
-        <v>30000.0</v>
+        <v>22000.0</v>
       </c>
       <c r="M12" s="4" t="inlineStr">
         <is>
@@ -1486,7 +1486,7 @@
       </c>
       <c r="O12" s="4" t="inlineStr">
         <is>
-          <t>代打保证金30000，招标机构已退回</t>
+          <t>补还款流程。</t>
         </is>
       </c>
       <c r="P12" s="4" t="inlineStr">
@@ -1501,22 +1501,22 @@
       </c>
       <c r="R12" s="4" t="inlineStr">
         <is>
-          <t>李婧</t>
+          <t>sunsw@zhonghui.com</t>
         </is>
       </c>
       <c r="S12" s="4" t="inlineStr">
         <is>
-          <t>李婧</t>
+          <t>孙思伟</t>
         </is>
       </c>
       <c r="T12" s="4" t="inlineStr">
         <is>
-          <t>2018-11-22 09:38:02</t>
+          <t>2018-08-07 11:51:43</t>
         </is>
       </c>
       <c r="U12" s="4" t="inlineStr">
         <is>
-          <t>2018-11-22 09:45:10</t>
+          <t>2018-08-07 11:51:43</t>
         </is>
       </c>
       <c r="V12" s="4" t="inlineStr">
@@ -1538,27 +1538,27 @@
     <row r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>PB1811220003</t>
+          <t>PB1808160001</t>
         </is>
       </c>
       <c r="C13" s="4" t="inlineStr">
         <is>
-          <t>湖北分公司</t>
+          <t>李兵</t>
         </is>
       </c>
       <c r="D13" s="4" t="inlineStr">
         <is>
-          <t>16003</t>
+          <t>15981</t>
         </is>
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
-          <t>湖北分部</t>
+          <t>营销中心</t>
         </is>
       </c>
       <c r="F13" s="4" t="inlineStr">
@@ -1590,7 +1590,7 @@
         <v>0.0</v>
       </c>
       <c r="L13" s="4" t="n">
-        <v>100000.0</v>
+        <v>734.0</v>
       </c>
       <c r="M13" s="4" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
       </c>
       <c r="O13" s="4" t="inlineStr">
         <is>
-          <t>归还武汉至十堰铁路孝感至十堰段空调KT01投标贷</t>
+          <t>已转账</t>
         </is>
       </c>
       <c r="P13" s="4" t="inlineStr">
@@ -1619,22 +1619,22 @@
       </c>
       <c r="R13" s="4" t="inlineStr">
         <is>
-          <t>gaol@zhonghui.com</t>
+          <t>李兵</t>
         </is>
       </c>
       <c r="S13" s="4" t="inlineStr">
         <is>
-          <t>高磊</t>
+          <t>李兵</t>
         </is>
       </c>
       <c r="T13" s="4" t="inlineStr">
         <is>
-          <t>2018-11-22 15:19:47</t>
+          <t>2018-08-16 15:57:01</t>
         </is>
       </c>
       <c r="U13" s="4" t="inlineStr">
         <is>
-          <t>2018-11-22 15:19:47</t>
+          <t>2018-08-16 15:57:01</t>
         </is>
       </c>
       <c r="V13" s="4" t="inlineStr">
@@ -1656,27 +1656,27 @@
     <row r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B14" s="4" t="inlineStr">
         <is>
-          <t>PB1812070001</t>
+          <t>PB1809100001</t>
         </is>
       </c>
       <c r="C14" s="4" t="inlineStr">
         <is>
-          <t>葛海玲</t>
+          <t>李玉英</t>
         </is>
       </c>
       <c r="D14" s="4" t="inlineStr">
         <is>
-          <t>15980</t>
+          <t>15991</t>
         </is>
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
-          <t>人力资源部</t>
+          <t>财务中心</t>
         </is>
       </c>
       <c r="F14" s="4" t="inlineStr">
@@ -1708,7 +1708,7 @@
         <v>0.0</v>
       </c>
       <c r="L14" s="4" t="n">
-        <v>500.0</v>
+        <v>138.5</v>
       </c>
       <c r="M14" s="4" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="O14" s="4" t="inlineStr">
         <is>
-          <t>魏总一行人参加完美年度经营计划与预算制定的培训费。</t>
+          <t>归还剩余借款</t>
         </is>
       </c>
       <c r="P14" s="4" t="inlineStr">
@@ -1737,22 +1737,22 @@
       </c>
       <c r="R14" s="4" t="inlineStr">
         <is>
-          <t>ghl@zhonghui.com</t>
+          <t>李玉英</t>
         </is>
       </c>
       <c r="S14" s="4" t="inlineStr">
         <is>
-          <t>葛海玲</t>
+          <t>李玉英</t>
         </is>
       </c>
       <c r="T14" s="4" t="inlineStr">
         <is>
-          <t>2018-12-07 14:28:00</t>
+          <t>2018-09-10 17:45:58</t>
         </is>
       </c>
       <c r="U14" s="4" t="inlineStr">
         <is>
-          <t>2018-12-07 14:28:00</t>
+          <t>2018-09-10 17:45:58</t>
         </is>
       </c>
       <c r="V14" s="4" t="inlineStr">
@@ -1774,27 +1774,27 @@
     <row r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
-          <t>PB1904100002</t>
+          <t>PB1810080001</t>
         </is>
       </c>
       <c r="C15" s="4" t="inlineStr">
         <is>
-          <t>张鑫</t>
+          <t>叶文</t>
         </is>
       </c>
       <c r="D15" s="4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15981</t>
         </is>
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>营销中心</t>
         </is>
       </c>
       <c r="F15" s="4" t="inlineStr">
@@ -1826,7 +1826,7 @@
         <v>0.0</v>
       </c>
       <c r="L15" s="4" t="n">
-        <v>3159.93</v>
+        <v>15000.0</v>
       </c>
       <c r="M15" s="4" t="inlineStr">
         <is>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="O15" s="4" t="inlineStr">
         <is>
-          <t>钉钉培训8人费用去5人，剩余还款</t>
+          <t>此借款已从借款业务工资中扣除</t>
         </is>
       </c>
       <c r="P15" s="4" t="inlineStr">
@@ -1855,22 +1855,22 @@
       </c>
       <c r="R15" s="4" t="inlineStr">
         <is>
-          <t>zxin@zhonghui.com</t>
+          <t>叶文</t>
         </is>
       </c>
       <c r="S15" s="4" t="inlineStr">
         <is>
-          <t>张鑫</t>
+          <t>叶文</t>
         </is>
       </c>
       <c r="T15" s="4" t="inlineStr">
         <is>
-          <t>2019-04-10 15:13:44</t>
+          <t>2018-10-08 14:36:42</t>
         </is>
       </c>
       <c r="U15" s="4" t="inlineStr">
         <is>
-          <t>2019-04-10 16:00:55</t>
+          <t>2018-10-08 14:36:42</t>
         </is>
       </c>
       <c r="V15" s="4" t="inlineStr">
@@ -1892,27 +1892,27 @@
     <row r="16">
       <c r="A16" s="4" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B16" s="4" t="inlineStr">
         <is>
-          <t>PB1905270001</t>
+          <t>PB1810090001</t>
         </is>
       </c>
       <c r="C16" s="4" t="inlineStr">
         <is>
-          <t>邓声全</t>
+          <t>聂渊</t>
         </is>
       </c>
       <c r="D16" s="4" t="inlineStr">
         <is>
-          <t>16000</t>
+          <t>16026</t>
         </is>
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
-          <t>山东分部</t>
+          <t>信息化中心</t>
         </is>
       </c>
       <c r="F16" s="4" t="inlineStr">
@@ -1944,7 +1944,7 @@
         <v>0.0</v>
       </c>
       <c r="L16" s="4" t="n">
-        <v>114112.0</v>
+        <v>11.53</v>
       </c>
       <c r="M16" s="4" t="inlineStr">
         <is>
@@ -1958,7 +1958,7 @@
       </c>
       <c r="O16" s="4" t="inlineStr">
         <is>
-          <t>归还办保函手续费</t>
+          <t>智能印章阿里云服务器更改带宽为5M,借款1518.35,实际支出1506.82,归还剩余借款11.53</t>
         </is>
       </c>
       <c r="P16" s="4" t="inlineStr">
@@ -1973,22 +1973,22 @@
       </c>
       <c r="R16" s="4" t="inlineStr">
         <is>
-          <t>ljl@zhonghui.com</t>
+          <t>ny@zhonghui.com</t>
         </is>
       </c>
       <c r="S16" s="4" t="inlineStr">
         <is>
-          <t>李靖亮</t>
+          <t>聂渊</t>
         </is>
       </c>
       <c r="T16" s="4" t="inlineStr">
         <is>
-          <t>2019-05-27 15:17:22</t>
+          <t>2018-10-09 16:20:07</t>
         </is>
       </c>
       <c r="U16" s="4" t="inlineStr">
         <is>
-          <t>2019-05-27 15:17:22</t>
+          <t>2018-10-09 16:20:07</t>
         </is>
       </c>
       <c r="V16" s="4" t="inlineStr">
@@ -2010,27 +2010,27 @@
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t>PB1905280001</t>
+          <t>PB1810160001</t>
         </is>
       </c>
       <c r="C17" s="4" t="inlineStr">
         <is>
-          <t>檀作亮</t>
+          <t>聂耀红</t>
         </is>
       </c>
       <c r="D17" s="4" t="inlineStr">
         <is>
-          <t>15982</t>
+          <t>16003</t>
         </is>
       </c>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>安徽分部</t>
+          <t>湖北分部</t>
         </is>
       </c>
       <c r="F17" s="4" t="inlineStr">
@@ -2062,7 +2062,7 @@
         <v>0.0</v>
       </c>
       <c r="L17" s="4" t="n">
-        <v>20000.0</v>
+        <v>32000.0</v>
       </c>
       <c r="M17" s="4" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="O17" s="4" t="inlineStr">
         <is>
-          <t>2019年5月27日招标机构退回20000元保证金</t>
+          <t>归还江西省交通建设工程质量监督管理局弱电智能化系统安装工程鲜蘑菇投标贷32000</t>
         </is>
       </c>
       <c r="P17" s="4" t="inlineStr">
@@ -2091,22 +2091,22 @@
       </c>
       <c r="R17" s="4" t="inlineStr">
         <is>
-          <t>李婧</t>
+          <t>gaol@zhonghui.com</t>
         </is>
       </c>
       <c r="S17" s="4" t="inlineStr">
         <is>
-          <t>李婧</t>
+          <t>高磊</t>
         </is>
       </c>
       <c r="T17" s="4" t="inlineStr">
         <is>
-          <t>2019-05-28 10:57:28</t>
+          <t>2018-10-16 13:50:04</t>
         </is>
       </c>
       <c r="U17" s="4" t="inlineStr">
         <is>
-          <t>2019-05-28 10:57:28</t>
+          <t>2018-10-16 13:50:04</t>
         </is>
       </c>
       <c r="V17" s="4" t="inlineStr">
@@ -2128,27 +2128,27 @@
     <row r="18">
       <c r="A18" s="4" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B18" s="4" t="inlineStr">
         <is>
-          <t>PB1907150001</t>
+          <t>PB1810180002</t>
         </is>
       </c>
       <c r="C18" s="4" t="inlineStr">
         <is>
-          <t>李刚</t>
+          <t>宋勇</t>
         </is>
       </c>
       <c r="D18" s="4" t="inlineStr">
         <is>
-          <t>16003</t>
+          <t>15993</t>
         </is>
       </c>
       <c r="E18" s="4" t="inlineStr">
         <is>
-          <t>湖北分部</t>
+          <t>运营中心</t>
         </is>
       </c>
       <c r="F18" s="4" t="inlineStr">
@@ -2180,7 +2180,7 @@
         <v>0.0</v>
       </c>
       <c r="L18" s="4" t="n">
-        <v>35880.0</v>
+        <v>1723.0</v>
       </c>
       <c r="M18" s="4" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
       </c>
       <c r="O18" s="4" t="inlineStr">
         <is>
-          <t>客户胡晶晶账户支付徽商银行青年路支行账户35880，用于归还公司投标保证金借款</t>
+          <t>从公司借5000  费用报销3277  归还1723</t>
         </is>
       </c>
       <c r="P18" s="4" t="inlineStr">
@@ -2209,22 +2209,22 @@
       </c>
       <c r="R18" s="4" t="inlineStr">
         <is>
-          <t>gaol@zhonghui.com</t>
+          <t>宋勇</t>
         </is>
       </c>
       <c r="S18" s="4" t="inlineStr">
         <is>
-          <t>高磊</t>
+          <t>宋勇</t>
         </is>
       </c>
       <c r="T18" s="4" t="inlineStr">
         <is>
-          <t>2019-07-15 21:26:41</t>
+          <t>2018-10-18 15:20:50</t>
         </is>
       </c>
       <c r="U18" s="4" t="inlineStr">
         <is>
-          <t>2019-07-17 11:10:24</t>
+          <t>2018-10-18 15:20:50</t>
         </is>
       </c>
       <c r="V18" s="4" t="inlineStr">
@@ -2246,27 +2246,27 @@
     <row r="19">
       <c r="A19" s="4" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
-          <t>PB1907150003</t>
+          <t>PB1810260001</t>
         </is>
       </c>
       <c r="C19" s="4" t="inlineStr">
         <is>
-          <t>李志强</t>
+          <t>郑伟</t>
         </is>
       </c>
       <c r="D19" s="4" t="inlineStr">
         <is>
-          <t>16014</t>
+          <t>15979</t>
         </is>
       </c>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>江西分部</t>
+          <t>总经办</t>
         </is>
       </c>
       <c r="F19" s="4" t="inlineStr">
@@ -2291,14 +2291,14 @@
       </c>
       <c r="J19" s="4" t="inlineStr">
         <is>
-          <t>徽商银行青年路支行</t>
+          <t>现金</t>
         </is>
       </c>
       <c r="K19" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="L19" s="4" t="n">
-        <v>773000.0</v>
+        <v>92.0</v>
       </c>
       <c r="M19" s="4" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
       </c>
       <c r="O19" s="4" t="inlineStr">
         <is>
-          <t>招标机构退回投标保证金</t>
+          <t>剩余92元以现金方式归还，5908元冲账</t>
         </is>
       </c>
       <c r="P19" s="4" t="inlineStr">
@@ -2327,22 +2327,22 @@
       </c>
       <c r="R19" s="4" t="inlineStr">
         <is>
-          <t>gaol@zhonghui.com</t>
+          <t>zw@zhonghui.com</t>
         </is>
       </c>
       <c r="S19" s="4" t="inlineStr">
         <is>
-          <t>高磊</t>
+          <t>郑伟</t>
         </is>
       </c>
       <c r="T19" s="4" t="inlineStr">
         <is>
-          <t>2019-07-15 21:34:44</t>
+          <t>2018-10-26 13:43:30</t>
         </is>
       </c>
       <c r="U19" s="4" t="inlineStr">
         <is>
-          <t>2019-07-15 21:34:44</t>
+          <t>2018-10-26 13:43:30</t>
         </is>
       </c>
       <c r="V19" s="4" t="inlineStr">
@@ -2364,27 +2364,27 @@
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
-          <t>PB1908120001</t>
+          <t>PB1810310001</t>
         </is>
       </c>
       <c r="C20" s="4" t="inlineStr">
         <is>
-          <t>魏文早</t>
+          <t>山东分公司</t>
         </is>
       </c>
       <c r="D20" s="4" t="inlineStr">
         <is>
-          <t>15982</t>
+          <t>16000</t>
         </is>
       </c>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>安徽分部</t>
+          <t>山东分部</t>
         </is>
       </c>
       <c r="F20" s="4" t="inlineStr">
@@ -2416,7 +2416,7 @@
         <v>0.0</v>
       </c>
       <c r="L20" s="4" t="n">
-        <v>20000.0</v>
+        <v>261953.55</v>
       </c>
       <c r="M20" s="4" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
       </c>
       <c r="O20" s="4" t="inlineStr">
         <is>
-          <t>2019年中国联通安徽阜阳管理及辅助用房-综合楼 空调更新改造项目 保证金还款</t>
+          <t>湖南检测中心项目还款69000元，曹县人武部还款5万2，海泉湾还款40953.55元，济宁博物馆还款10万元</t>
         </is>
       </c>
       <c r="P20" s="4" t="inlineStr">
@@ -2445,22 +2445,22 @@
       </c>
       <c r="R20" s="4" t="inlineStr">
         <is>
-          <t>zqq@zhonghui.com</t>
+          <t>范甜甜</t>
         </is>
       </c>
       <c r="S20" s="4" t="inlineStr">
         <is>
-          <t>周倩倩</t>
+          <t>范甜甜</t>
         </is>
       </c>
       <c r="T20" s="4" t="inlineStr">
         <is>
-          <t>2019-08-12 15:11:41</t>
+          <t>2018-10-31 16:34:08</t>
         </is>
       </c>
       <c r="U20" s="4" t="inlineStr">
         <is>
-          <t>2019-08-12 15:11:41</t>
+          <t>2018-11-01 10:51:13</t>
         </is>
       </c>
       <c r="V20" s="4" t="inlineStr">
@@ -2482,27 +2482,27 @@
     <row r="21">
       <c r="A21" s="4" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t>PB1908130001</t>
+          <t>PB1811090001</t>
         </is>
       </c>
       <c r="C21" s="4" t="inlineStr">
         <is>
-          <t>晁振</t>
+          <t>湖北分公司</t>
         </is>
       </c>
       <c r="D21" s="4" t="inlineStr">
         <is>
-          <t>16000</t>
+          <t>16003</t>
         </is>
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>山东分部</t>
+          <t>湖北分部</t>
         </is>
       </c>
       <c r="F21" s="4" t="inlineStr">
@@ -2534,7 +2534,7 @@
         <v>0.0</v>
       </c>
       <c r="L21" s="4" t="n">
-        <v>10000.0</v>
+        <v>100000.0</v>
       </c>
       <c r="M21" s="4" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
       </c>
       <c r="O21" s="4" t="inlineStr">
         <is>
-          <t>投标贷退回</t>
+          <t>归还武汉至十堰铁路孝感至十堰段空调KTO2投标保证金</t>
         </is>
       </c>
       <c r="P21" s="4" t="inlineStr">
@@ -2563,22 +2563,22 @@
       </c>
       <c r="R21" s="4" t="inlineStr">
         <is>
-          <t>ljl@zhonghui.com</t>
+          <t>gaol@zhonghui.com</t>
         </is>
       </c>
       <c r="S21" s="4" t="inlineStr">
         <is>
-          <t>李靖亮</t>
+          <t>高磊</t>
         </is>
       </c>
       <c r="T21" s="4" t="inlineStr">
         <is>
-          <t>2019-08-13 10:10:40</t>
+          <t>2018-11-09 16:01:01</t>
         </is>
       </c>
       <c r="U21" s="4" t="inlineStr">
         <is>
-          <t>2019-08-13 10:10:40</t>
+          <t>2018-11-09 16:01:01</t>
         </is>
       </c>
       <c r="V21" s="4" t="inlineStr">
@@ -2600,27 +2600,27 @@
     <row r="22">
       <c r="A22" s="4" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
-          <t>PB1908220001</t>
+          <t>PB1811130001</t>
         </is>
       </c>
       <c r="C22" s="4" t="inlineStr">
         <is>
-          <t>邱慧敏</t>
+          <t>湖北分公司</t>
         </is>
       </c>
       <c r="D22" s="4" t="inlineStr">
         <is>
-          <t>15980</t>
+          <t>16003</t>
         </is>
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>人力资源部</t>
+          <t>湖北分部</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
@@ -2652,7 +2652,7 @@
         <v>0.0</v>
       </c>
       <c r="L22" s="4" t="n">
-        <v>35.0</v>
+        <v>50000.0</v>
       </c>
       <c r="M22" s="4" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
       </c>
       <c r="O22" s="4" t="inlineStr">
         <is>
-          <t>三体系老师住宿费及招待费</t>
+          <t>归还宜昌市伍家岗区“三馆三中心”暖通工程投标保证金</t>
         </is>
       </c>
       <c r="P22" s="4" t="inlineStr">
@@ -2681,22 +2681,22 @@
       </c>
       <c r="R22" s="4" t="inlineStr">
         <is>
-          <t>qhm@zhonghui.com</t>
+          <t>gaol@zhonghui.com</t>
         </is>
       </c>
       <c r="S22" s="4" t="inlineStr">
         <is>
-          <t>邱慧敏</t>
+          <t>高磊</t>
         </is>
       </c>
       <c r="T22" s="4" t="inlineStr">
         <is>
-          <t>2019-08-22 09:29:56</t>
+          <t>2018-11-13 09:47:15</t>
         </is>
       </c>
       <c r="U22" s="4" t="inlineStr">
         <is>
-          <t>2019-08-22 09:30:16</t>
+          <t>2018-11-13 09:47:15</t>
         </is>
       </c>
       <c r="V22" s="4" t="inlineStr">
@@ -2718,27 +2718,27 @@
     <row r="23">
       <c r="A23" s="4" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>PB1908220002</t>
+          <t>PB1811130002</t>
         </is>
       </c>
       <c r="C23" s="4" t="inlineStr">
         <is>
-          <t>李洪志</t>
+          <t>张宏祥-承立志</t>
         </is>
       </c>
       <c r="D23" s="4" t="inlineStr">
         <is>
-          <t>16036</t>
+          <t>15982</t>
         </is>
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>江苏分部</t>
+          <t>安徽分部</t>
         </is>
       </c>
       <c r="F23" s="4" t="inlineStr">
@@ -2770,7 +2770,7 @@
         <v>0.0</v>
       </c>
       <c r="L23" s="4" t="n">
-        <v>149985.0</v>
+        <v>30000.0</v>
       </c>
       <c r="M23" s="4" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
       </c>
       <c r="O23" s="4" t="inlineStr">
         <is>
-          <t>8.21到账基本户149985</t>
+          <t>从信达蓝湖郡调拨款项3万元到华地项目下还投标贷借款3万元</t>
         </is>
       </c>
       <c r="P23" s="4" t="inlineStr">
@@ -2799,22 +2799,22 @@
       </c>
       <c r="R23" s="4" t="inlineStr">
         <is>
-          <t>zhanyp@zhonghui.com</t>
+          <t>李婧</t>
         </is>
       </c>
       <c r="S23" s="4" t="inlineStr">
         <is>
-          <t>詹亚平</t>
+          <t>李婧</t>
         </is>
       </c>
       <c r="T23" s="4" t="inlineStr">
         <is>
-          <t>2019-08-22 10:33:48</t>
+          <t>2018-11-13 13:52:13</t>
         </is>
       </c>
       <c r="U23" s="4" t="inlineStr">
         <is>
-          <t>2019-08-22 10:33:48</t>
+          <t>2018-11-13 13:52:13</t>
         </is>
       </c>
       <c r="V23" s="4" t="inlineStr">
@@ -2836,27 +2836,27 @@
     <row r="24">
       <c r="A24" s="4" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>26</t>
         </is>
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
-          <t>PB1908230002</t>
+          <t>PB1811160001</t>
         </is>
       </c>
       <c r="C24" s="4" t="inlineStr">
         <is>
-          <t>詹双双</t>
+          <t>山东分公司</t>
         </is>
       </c>
       <c r="D24" s="4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16000</t>
         </is>
       </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>山东分部</t>
         </is>
       </c>
       <c r="F24" s="4" t="inlineStr">
@@ -2888,7 +2888,7 @@
         <v>0.0</v>
       </c>
       <c r="L24" s="4" t="n">
-        <v>148.79</v>
+        <v>241120.0</v>
       </c>
       <c r="M24" s="4" t="inlineStr">
         <is>
@@ -2902,7 +2902,7 @@
       </c>
       <c r="O24" s="4" t="inlineStr">
         <is>
-          <t>归还该笔款项未花完的借款 148.79</t>
+          <t>山东分公司共管户于2018.11.14转至基本户</t>
         </is>
       </c>
       <c r="P24" s="4" t="inlineStr">
@@ -2917,22 +2917,22 @@
       </c>
       <c r="R24" s="4" t="inlineStr">
         <is>
-          <t>zss@zhonghui.com</t>
+          <t>范甜甜</t>
         </is>
       </c>
       <c r="S24" s="4" t="inlineStr">
         <is>
-          <t>詹双双</t>
+          <t>范甜甜</t>
         </is>
       </c>
       <c r="T24" s="4" t="inlineStr">
         <is>
-          <t>2019-08-23 09:20:55</t>
+          <t>2018-11-16 10:51:15</t>
         </is>
       </c>
       <c r="U24" s="4" t="inlineStr">
         <is>
-          <t>2019-08-23 09:20:55</t>
+          <t>2018-11-16 10:51:15</t>
         </is>
       </c>
       <c r="V24" s="4" t="inlineStr">
@@ -2954,27 +2954,27 @@
     <row r="25">
       <c r="A25" s="4" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
-          <t>PB1908270001</t>
+          <t>PB1811210001</t>
         </is>
       </c>
       <c r="C25" s="4" t="inlineStr">
         <is>
-          <t>中徽机电科技股份有限公司</t>
+          <t>聂耀红</t>
         </is>
       </c>
       <c r="D25" s="4" t="inlineStr">
         <is>
-          <t>15982</t>
+          <t>16003</t>
         </is>
       </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>安徽分部</t>
+          <t>湖北分部</t>
         </is>
       </c>
       <c r="F25" s="4" t="inlineStr">
@@ -3006,7 +3006,7 @@
         <v>0.0</v>
       </c>
       <c r="L25" s="4" t="n">
-        <v>800000.0</v>
+        <v>657242.0</v>
       </c>
       <c r="M25" s="4" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
       </c>
       <c r="O25" s="4" t="inlineStr">
         <is>
-          <t>8.26退回基本户80万元</t>
+          <t>归还“澜湖花园”国资产业大厦写字楼空调设备采购、安装工程657242元履约保证金借款</t>
         </is>
       </c>
       <c r="P25" s="4" t="inlineStr">
@@ -3035,22 +3035,22 @@
       </c>
       <c r="R25" s="4" t="inlineStr">
         <is>
-          <t>hdw@zhonghui.com</t>
+          <t>gaol@zhonghui.com</t>
         </is>
       </c>
       <c r="S25" s="4" t="inlineStr">
         <is>
-          <t>黄大卫</t>
+          <t>高磊</t>
         </is>
       </c>
       <c r="T25" s="4" t="inlineStr">
         <is>
-          <t>2019-08-27 14:36:23</t>
+          <t>2018-11-21 10:12:54</t>
         </is>
       </c>
       <c r="U25" s="4" t="inlineStr">
         <is>
-          <t>2019-08-29 09:29:39</t>
+          <t>2018-11-21 10:12:54</t>
         </is>
       </c>
       <c r="V25" s="4" t="inlineStr">
@@ -3072,27 +3072,27 @@
     <row r="26">
       <c r="A26" s="4" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B26" s="4" t="inlineStr">
         <is>
-          <t>PB1909190001</t>
+          <t>PB1811220001</t>
         </is>
       </c>
       <c r="C26" s="4" t="inlineStr">
         <is>
-          <t>邓声全</t>
+          <t>魏文早</t>
         </is>
       </c>
       <c r="D26" s="4" t="inlineStr">
         <is>
-          <t>16000</t>
+          <t>15982</t>
         </is>
       </c>
       <c r="E26" s="4" t="inlineStr">
         <is>
-          <t>山东分部</t>
+          <t>安徽分部</t>
         </is>
       </c>
       <c r="F26" s="4" t="inlineStr">
@@ -3124,7 +3124,7 @@
         <v>0.0</v>
       </c>
       <c r="L26" s="4" t="n">
-        <v>300000.0</v>
+        <v>30000.0</v>
       </c>
       <c r="M26" s="4" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
       </c>
       <c r="O26" s="4" t="inlineStr">
         <is>
-          <t>投标贷保证金退回</t>
+          <t>代打保证金30000，招标机构已退回</t>
         </is>
       </c>
       <c r="P26" s="4" t="inlineStr">
@@ -3153,22 +3153,22 @@
       </c>
       <c r="R26" s="4" t="inlineStr">
         <is>
-          <t>ljl@zhonghui.com</t>
+          <t>李婧</t>
         </is>
       </c>
       <c r="S26" s="4" t="inlineStr">
         <is>
-          <t>李靖亮</t>
+          <t>李婧</t>
         </is>
       </c>
       <c r="T26" s="4" t="inlineStr">
         <is>
-          <t>2019-09-19 10:32:51</t>
+          <t>2018-11-22 09:38:02</t>
         </is>
       </c>
       <c r="U26" s="4" t="inlineStr">
         <is>
-          <t>2019-09-19 10:32:51</t>
+          <t>2018-11-22 09:45:10</t>
         </is>
       </c>
       <c r="V26" s="4" t="inlineStr">
@@ -3190,27 +3190,27 @@
     <row r="27">
       <c r="A27" s="4" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B27" s="4" t="inlineStr">
         <is>
-          <t>PB1909210001</t>
+          <t>PB1811220002</t>
         </is>
       </c>
       <c r="C27" s="4" t="inlineStr">
         <is>
-          <t>李洪志</t>
+          <t>湖北分公司</t>
         </is>
       </c>
       <c r="D27" s="4" t="inlineStr">
         <is>
-          <t>16036</t>
+          <t>16003</t>
         </is>
       </c>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t>江苏分部</t>
+          <t>湖北分部</t>
         </is>
       </c>
       <c r="F27" s="4" t="inlineStr">
@@ -3242,7 +3242,7 @@
         <v>0.0</v>
       </c>
       <c r="L27" s="4" t="n">
-        <v>10000.0</v>
+        <v>100000.0</v>
       </c>
       <c r="M27" s="4" t="inlineStr">
         <is>
@@ -3256,7 +3256,7 @@
       </c>
       <c r="O27" s="4" t="inlineStr">
         <is>
-          <t>9.11回汇票10000元整</t>
+          <t>归还通山县中医院中央空调采购及安装项目投标贷</t>
         </is>
       </c>
       <c r="P27" s="4" t="inlineStr">
@@ -3271,22 +3271,22 @@
       </c>
       <c r="R27" s="4" t="inlineStr">
         <is>
-          <t>zhanyp@zhonghui.com</t>
+          <t>gaol@zhonghui.com</t>
         </is>
       </c>
       <c r="S27" s="4" t="inlineStr">
         <is>
-          <t>詹亚平</t>
+          <t>admin</t>
         </is>
       </c>
       <c r="T27" s="4" t="inlineStr">
         <is>
-          <t>2019-09-21 09:18:49</t>
+          <t>2018-11-22 15:18:24</t>
         </is>
       </c>
       <c r="U27" s="4" t="inlineStr">
         <is>
-          <t>2019-09-21 09:18:49</t>
+          <t>2019-10-21 13:54:14</t>
         </is>
       </c>
       <c r="V27" s="4" t="inlineStr">
@@ -3308,17 +3308,17 @@
     <row r="28">
       <c r="A28" s="4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B28" s="4" t="inlineStr">
         <is>
-          <t>PB1909290001</t>
+          <t>PB1811220003</t>
         </is>
       </c>
       <c r="C28" s="4" t="inlineStr">
         <is>
-          <t>赵铿</t>
+          <t>湖北分公司</t>
         </is>
       </c>
       <c r="D28" s="4" t="inlineStr">
@@ -3360,7 +3360,7 @@
         <v>0.0</v>
       </c>
       <c r="L28" s="4" t="n">
-        <v>10000.0</v>
+        <v>100000.0</v>
       </c>
       <c r="M28" s="4" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
       </c>
       <c r="O28" s="4" t="inlineStr">
         <is>
-          <t>归还公司投标贷借款，</t>
+          <t>归还武汉至十堰铁路孝感至十堰段空调KT01投标贷</t>
         </is>
       </c>
       <c r="P28" s="4" t="inlineStr">
@@ -3399,12 +3399,12 @@
       </c>
       <c r="T28" s="4" t="inlineStr">
         <is>
-          <t>2019-09-29 09:26:02</t>
+          <t>2018-11-22 15:19:47</t>
         </is>
       </c>
       <c r="U28" s="4" t="inlineStr">
         <is>
-          <t>2019-09-29 09:26:02</t>
+          <t>2018-11-22 15:19:47</t>
         </is>
       </c>
       <c r="V28" s="4" t="inlineStr">
@@ -3426,27 +3426,27 @@
     <row r="29">
       <c r="A29" s="4" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t>PB1910140001</t>
+          <t>PB1812010001</t>
         </is>
       </c>
       <c r="C29" s="4" t="inlineStr">
         <is>
-          <t>于伟林</t>
+          <t>武其伟</t>
         </is>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>16000</t>
+          <t>15982</t>
         </is>
       </c>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t>山东分部</t>
+          <t>安徽分部</t>
         </is>
       </c>
       <c r="F29" s="4" t="inlineStr">
@@ -3478,7 +3478,7 @@
         <v>0.0</v>
       </c>
       <c r="L29" s="4" t="n">
-        <v>30000.0</v>
+        <v>18000.0</v>
       </c>
       <c r="M29" s="4" t="inlineStr">
         <is>
@@ -3492,7 +3492,7 @@
       </c>
       <c r="O29" s="4" t="inlineStr">
         <is>
-          <t>投标贷退回</t>
+          <t>11月30日收阜阳监狱项目投标保证金退还</t>
         </is>
       </c>
       <c r="P29" s="4" t="inlineStr">
@@ -3507,22 +3507,22 @@
       </c>
       <c r="R29" s="4" t="inlineStr">
         <is>
-          <t>ljl@zhonghui.com</t>
+          <t>余宏伟</t>
         </is>
       </c>
       <c r="S29" s="4" t="inlineStr">
         <is>
-          <t>李靖亮</t>
+          <t>余宏伟</t>
         </is>
       </c>
       <c r="T29" s="4" t="inlineStr">
         <is>
-          <t>2019-10-14 13:39:44</t>
+          <t>2018-12-01 10:16:03</t>
         </is>
       </c>
       <c r="U29" s="4" t="inlineStr">
         <is>
-          <t>2019-10-14 13:39:44</t>
+          <t>2018-12-01 10:16:03</t>
         </is>
       </c>
       <c r="V29" s="4" t="inlineStr">
@@ -3544,27 +3544,27 @@
     <row r="30">
       <c r="A30" s="4" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B30" s="4" t="inlineStr">
         <is>
-          <t>PB1910140002</t>
+          <t>PB1812060001</t>
         </is>
       </c>
       <c r="C30" s="4" t="inlineStr">
         <is>
-          <t>陈春华</t>
+          <t>李兵</t>
         </is>
       </c>
       <c r="D30" s="4" t="inlineStr">
         <is>
-          <t>16000</t>
+          <t>15981</t>
         </is>
       </c>
       <c r="E30" s="4" t="inlineStr">
         <is>
-          <t>山东分部</t>
+          <t>营销中心</t>
         </is>
       </c>
       <c r="F30" s="4" t="inlineStr">
@@ -3596,7 +3596,7 @@
         <v>0.0</v>
       </c>
       <c r="L30" s="4" t="n">
-        <v>10000.0</v>
+        <v>661.0</v>
       </c>
       <c r="M30" s="4" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
       </c>
       <c r="O30" s="4" t="inlineStr">
         <is>
-          <t>投标贷退回</t>
+          <t>借款13500，结余661</t>
         </is>
       </c>
       <c r="P30" s="4" t="inlineStr">
@@ -3625,22 +3625,22 @@
       </c>
       <c r="R30" s="4" t="inlineStr">
         <is>
-          <t>ljl@zhonghui.com</t>
+          <t>李兵</t>
         </is>
       </c>
       <c r="S30" s="4" t="inlineStr">
         <is>
-          <t>李靖亮</t>
+          <t>李兵</t>
         </is>
       </c>
       <c r="T30" s="4" t="inlineStr">
         <is>
-          <t>2019-10-14 13:41:38</t>
+          <t>2018-12-06 10:04:49</t>
         </is>
       </c>
       <c r="U30" s="4" t="inlineStr">
         <is>
-          <t>2019-10-14 13:42:43</t>
+          <t>2018-12-06 10:04:49</t>
         </is>
       </c>
       <c r="V30" s="4" t="inlineStr">
@@ -3662,27 +3662,27 @@
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B31" s="4" t="inlineStr">
         <is>
-          <t>PB1910230001</t>
+          <t>PB1812070001</t>
         </is>
       </c>
       <c r="C31" s="4" t="inlineStr">
         <is>
-          <t>中徽机电科技股份有限公司</t>
+          <t>葛海玲</t>
         </is>
       </c>
       <c r="D31" s="4" t="inlineStr">
         <is>
-          <t>15982</t>
+          <t>15980</t>
         </is>
       </c>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t>安徽分部</t>
+          <t>人力资源部</t>
         </is>
       </c>
       <c r="F31" s="4" t="inlineStr">
@@ -3714,7 +3714,7 @@
         <v>0.0</v>
       </c>
       <c r="L31" s="4" t="n">
-        <v>500000.0</v>
+        <v>500.0</v>
       </c>
       <c r="M31" s="4" t="inlineStr">
         <is>
@@ -3728,7 +3728,7 @@
       </c>
       <c r="O31" s="4" t="inlineStr">
         <is>
-          <t>会泽县2019年村级光伏扶贫电站建设项目投标保证金</t>
+          <t>魏总一行人参加完美年度经营计划与预算制定的培训费。</t>
         </is>
       </c>
       <c r="P31" s="4" t="inlineStr">
@@ -3743,22 +3743,22 @@
       </c>
       <c r="R31" s="4" t="inlineStr">
         <is>
-          <t>hdw@zhonghui.com</t>
+          <t>ghl@zhonghui.com</t>
         </is>
       </c>
       <c r="S31" s="4" t="inlineStr">
         <is>
-          <t>黄大卫</t>
+          <t>葛海玲</t>
         </is>
       </c>
       <c r="T31" s="4" t="inlineStr">
         <is>
-          <t>2019-10-23 16:41:47</t>
+          <t>2018-12-07 14:28:00</t>
         </is>
       </c>
       <c r="U31" s="4" t="inlineStr">
         <is>
-          <t>2019-10-23 16:41:47</t>
+          <t>2018-12-07 14:28:00</t>
         </is>
       </c>
       <c r="V31" s="4" t="inlineStr">
@@ -3780,17 +3780,17 @@
     <row r="32">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B32" s="4" t="inlineStr">
         <is>
-          <t>PB1807250001</t>
+          <t>PB1812180001</t>
         </is>
       </c>
       <c r="C32" s="4" t="inlineStr">
         <is>
-          <t>向前</t>
+          <t>邱慧敏</t>
         </is>
       </c>
       <c r="D32" s="4" t="inlineStr">
@@ -3832,7 +3832,7 @@
         <v>0.0</v>
       </c>
       <c r="L32" s="4" t="n">
-        <v>582.28</v>
+        <v>780.0</v>
       </c>
       <c r="M32" s="4" t="inlineStr">
         <is>
@@ -3846,7 +3846,7 @@
       </c>
       <c r="O32" s="4" t="inlineStr">
         <is>
-          <t>还款</t>
+          <t>运营部所缺人员证照报名费用实际借款6240元，实际使用5460元，还款780元。</t>
         </is>
       </c>
       <c r="P32" s="4" t="inlineStr">
@@ -3861,22 +3861,22 @@
       </c>
       <c r="R32" s="4" t="inlineStr">
         <is>
-          <t>向前</t>
+          <t>qhm@zhonghui.com</t>
         </is>
       </c>
       <c r="S32" s="4" t="inlineStr">
         <is>
-          <t>向前</t>
+          <t>邱慧敏</t>
         </is>
       </c>
       <c r="T32" s="4" t="inlineStr">
         <is>
-          <t>2018-07-25 15:43:22</t>
+          <t>2018-12-18 13:25:21</t>
         </is>
       </c>
       <c r="U32" s="4" t="inlineStr">
         <is>
-          <t>2018-07-25 15:43:22</t>
+          <t>2018-12-18 13:25:21</t>
         </is>
       </c>
       <c r="V32" s="4" t="inlineStr">
@@ -3898,27 +3898,27 @@
     <row r="33">
       <c r="A33" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B33" s="4" t="inlineStr">
         <is>
-          <t>PB1808070001</t>
+          <t>PB1901080001</t>
         </is>
       </c>
       <c r="C33" s="4" t="inlineStr">
         <is>
-          <t>戴家敏</t>
+          <t>叶文</t>
         </is>
       </c>
       <c r="D33" s="4" t="inlineStr">
         <is>
-          <t>15980</t>
+          <t>15981</t>
         </is>
       </c>
       <c r="E33" s="4" t="inlineStr">
         <is>
-          <t>人力资源部</t>
+          <t>营销中心</t>
         </is>
       </c>
       <c r="F33" s="4" t="inlineStr">
@@ -3950,7 +3950,7 @@
         <v>0.0</v>
       </c>
       <c r="L33" s="4" t="n">
-        <v>748.52</v>
+        <v>17000.0</v>
       </c>
       <c r="M33" s="4" t="inlineStr">
         <is>
@@ -3964,7 +3964,7 @@
       </c>
       <c r="O33" s="4" t="inlineStr">
         <is>
-          <t>公司员工年会、过年福利、优秀员工表彰（详见附件）</t>
+          <t>9月的借款柯科10000   刘子琪4000  周大宝2000  周全1000已于小白核实已从业务工资中扣除</t>
         </is>
       </c>
       <c r="P33" s="4" t="inlineStr">
@@ -3979,22 +3979,22 @@
       </c>
       <c r="R33" s="4" t="inlineStr">
         <is>
-          <t>戴家敏</t>
+          <t>叶文</t>
         </is>
       </c>
       <c r="S33" s="4" t="inlineStr">
         <is>
-          <t>戴家敏</t>
+          <t>叶文</t>
         </is>
       </c>
       <c r="T33" s="4" t="inlineStr">
         <is>
-          <t>2018-08-07 08:58:19</t>
+          <t>2019-01-08 10:54:50</t>
         </is>
       </c>
       <c r="U33" s="4" t="inlineStr">
         <is>
-          <t>2018-08-07 09:20:26</t>
+          <t>2019-01-08 10:54:50</t>
         </is>
       </c>
       <c r="V33" s="4" t="inlineStr">
@@ -4016,27 +4016,27 @@
     <row r="34">
       <c r="A34" s="4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>36</t>
         </is>
       </c>
       <c r="B34" s="4" t="inlineStr">
         <is>
-          <t>PB1809100001</t>
+          <t>PB1901160001</t>
         </is>
       </c>
       <c r="C34" s="4" t="inlineStr">
         <is>
-          <t>李玉英</t>
+          <t>顾鸿彬</t>
         </is>
       </c>
       <c r="D34" s="4" t="inlineStr">
         <is>
-          <t>15991</t>
+          <t>15993</t>
         </is>
       </c>
       <c r="E34" s="4" t="inlineStr">
         <is>
-          <t>财务中心</t>
+          <t>运营中心</t>
         </is>
       </c>
       <c r="F34" s="4" t="inlineStr">
@@ -4068,7 +4068,7 @@
         <v>0.0</v>
       </c>
       <c r="L34" s="4" t="n">
-        <v>138.5</v>
+        <v>1000.0</v>
       </c>
       <c r="M34" s="4" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
       </c>
       <c r="O34" s="4" t="inlineStr">
         <is>
-          <t>归还剩余借款</t>
+          <t>18年度评优奖金</t>
         </is>
       </c>
       <c r="P34" s="4" t="inlineStr">
@@ -4097,22 +4097,22 @@
       </c>
       <c r="R34" s="4" t="inlineStr">
         <is>
-          <t>李玉英</t>
+          <t>ghb@zhonghui.com</t>
         </is>
       </c>
       <c r="S34" s="4" t="inlineStr">
         <is>
-          <t>李玉英</t>
+          <t>顾鸿彬</t>
         </is>
       </c>
       <c r="T34" s="4" t="inlineStr">
         <is>
-          <t>2018-09-10 17:45:58</t>
+          <t>2019-01-16 14:17:15</t>
         </is>
       </c>
       <c r="U34" s="4" t="inlineStr">
         <is>
-          <t>2018-09-10 17:45:58</t>
+          <t>2019-01-16 14:17:15</t>
         </is>
       </c>
       <c r="V34" s="4" t="inlineStr">
@@ -4134,27 +4134,27 @@
     <row r="35">
       <c r="A35" s="4" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>37</t>
         </is>
       </c>
       <c r="B35" s="4" t="inlineStr">
         <is>
-          <t>PB1810180002</t>
+          <t>PB1902220001</t>
         </is>
       </c>
       <c r="C35" s="4" t="inlineStr">
         <is>
-          <t>宋勇</t>
+          <t>承立志</t>
         </is>
       </c>
       <c r="D35" s="4" t="inlineStr">
         <is>
-          <t>15993</t>
+          <t>15982</t>
         </is>
       </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>运营中心</t>
+          <t>安徽分部</t>
         </is>
       </c>
       <c r="F35" s="4" t="inlineStr">
@@ -4186,7 +4186,7 @@
         <v>0.0</v>
       </c>
       <c r="L35" s="4" t="n">
-        <v>1723.0</v>
+        <v>50000.0</v>
       </c>
       <c r="M35" s="4" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
       </c>
       <c r="O35" s="4" t="inlineStr">
         <is>
-          <t>从公司借5000  费用报销3277  归还1723</t>
+          <t>秀山信达城C地块项目智能化工程投标保证金</t>
         </is>
       </c>
       <c r="P35" s="4" t="inlineStr">
@@ -4215,22 +4215,22 @@
       </c>
       <c r="R35" s="4" t="inlineStr">
         <is>
-          <t>宋勇</t>
+          <t>邢芳</t>
         </is>
       </c>
       <c r="S35" s="4" t="inlineStr">
         <is>
-          <t>宋勇</t>
+          <t>邢芳</t>
         </is>
       </c>
       <c r="T35" s="4" t="inlineStr">
         <is>
-          <t>2018-10-18 15:20:50</t>
+          <t>2019-02-22 15:49:58</t>
         </is>
       </c>
       <c r="U35" s="4" t="inlineStr">
         <is>
-          <t>2018-10-18 15:20:50</t>
+          <t>2019-02-22 15:49:58</t>
         </is>
       </c>
       <c r="V35" s="4" t="inlineStr">
@@ -4252,27 +4252,27 @@
     <row r="36">
       <c r="A36" s="4" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>38</t>
         </is>
       </c>
       <c r="B36" s="4" t="inlineStr">
         <is>
-          <t>PB1810310001</t>
+          <t>PB1902260001</t>
         </is>
       </c>
       <c r="C36" s="4" t="inlineStr">
         <is>
-          <t>山东分公司</t>
+          <t>檀经理</t>
         </is>
       </c>
       <c r="D36" s="4" t="inlineStr">
         <is>
-          <t>16000</t>
+          <t>15982</t>
         </is>
       </c>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t>山东分部</t>
+          <t>安徽分部</t>
         </is>
       </c>
       <c r="F36" s="4" t="inlineStr">
@@ -4297,14 +4297,14 @@
       </c>
       <c r="J36" s="4" t="inlineStr">
         <is>
-          <t>徽商银行青年路支行</t>
+          <t>胡冬梅</t>
         </is>
       </c>
       <c r="K36" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="L36" s="4" t="n">
-        <v>261953.55</v>
+        <v>20000.0</v>
       </c>
       <c r="M36" s="4" t="inlineStr">
         <is>
@@ -4318,7 +4318,7 @@
       </c>
       <c r="O36" s="4" t="inlineStr">
         <is>
-          <t>湖南检测中心项目还款69000元，曹县人武部还款5万2，海泉湾还款40953.55元，济宁博物馆还款10万元</t>
+          <t>2019年2月25日转到胡冬梅账户11394元，招标机构退回9606</t>
         </is>
       </c>
       <c r="P36" s="4" t="inlineStr">
@@ -4333,22 +4333,22 @@
       </c>
       <c r="R36" s="4" t="inlineStr">
         <is>
-          <t>范甜甜</t>
+          <t>李婧</t>
         </is>
       </c>
       <c r="S36" s="4" t="inlineStr">
         <is>
-          <t>范甜甜</t>
+          <t>李婧</t>
         </is>
       </c>
       <c r="T36" s="4" t="inlineStr">
         <is>
-          <t>2018-10-31 16:34:08</t>
+          <t>2019-02-26 10:21:52</t>
         </is>
       </c>
       <c r="U36" s="4" t="inlineStr">
         <is>
-          <t>2018-11-01 10:51:13</t>
+          <t>2019-02-26 10:24:00</t>
         </is>
       </c>
       <c r="V36" s="4" t="inlineStr">
@@ -4370,27 +4370,27 @@
     <row r="37">
       <c r="A37" s="4" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>39</t>
         </is>
       </c>
       <c r="B37" s="4" t="inlineStr">
         <is>
-          <t>PB1811210001</t>
+          <t>PB1903060001</t>
         </is>
       </c>
       <c r="C37" s="4" t="inlineStr">
         <is>
-          <t>聂耀红</t>
+          <t>朱晓磊</t>
         </is>
       </c>
       <c r="D37" s="4" t="inlineStr">
         <is>
-          <t>16003</t>
+          <t>15982</t>
         </is>
       </c>
       <c r="E37" s="4" t="inlineStr">
         <is>
-          <t>湖北分部</t>
+          <t>安徽分部</t>
         </is>
       </c>
       <c r="F37" s="4" t="inlineStr">
@@ -4422,7 +4422,7 @@
         <v>0.0</v>
       </c>
       <c r="L37" s="4" t="n">
-        <v>657242.0</v>
+        <v>100000.0</v>
       </c>
       <c r="M37" s="4" t="inlineStr">
         <is>
@@ -4436,7 +4436,7 @@
       </c>
       <c r="O37" s="4" t="inlineStr">
         <is>
-          <t>归还“澜湖花园”国资产业大厦写字楼空调设备采购、安装工程657242元履约保证金借款</t>
+          <t>保证金退回作为客户归还投标贷借款</t>
         </is>
       </c>
       <c r="P37" s="4" t="inlineStr">
@@ -4451,22 +4451,22 @@
       </c>
       <c r="R37" s="4" t="inlineStr">
         <is>
-          <t>gaol@zhonghui.com</t>
+          <t>许建</t>
         </is>
       </c>
       <c r="S37" s="4" t="inlineStr">
         <is>
-          <t>高磊</t>
+          <t>许建</t>
         </is>
       </c>
       <c r="T37" s="4" t="inlineStr">
         <is>
-          <t>2018-11-21 10:12:54</t>
+          <t>2019-03-06 09:42:15</t>
         </is>
       </c>
       <c r="U37" s="4" t="inlineStr">
         <is>
-          <t>2018-11-21 10:12:54</t>
+          <t>2019-03-06 09:46:15</t>
         </is>
       </c>
       <c r="V37" s="4" t="inlineStr">
@@ -4488,27 +4488,27 @@
     <row r="38">
       <c r="A38" s="4" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B38" s="4" t="inlineStr">
         <is>
-          <t>PB1812180001</t>
+          <t>PB1903150001</t>
         </is>
       </c>
       <c r="C38" s="4" t="inlineStr">
         <is>
-          <t>邱慧敏</t>
+          <t>曹荣明</t>
         </is>
       </c>
       <c r="D38" s="4" t="inlineStr">
         <is>
-          <t>15980</t>
+          <t>15982</t>
         </is>
       </c>
       <c r="E38" s="4" t="inlineStr">
         <is>
-          <t>人力资源部</t>
+          <t>安徽分部</t>
         </is>
       </c>
       <c r="F38" s="4" t="inlineStr">
@@ -4540,7 +4540,7 @@
         <v>0.0</v>
       </c>
       <c r="L38" s="4" t="n">
-        <v>780.0</v>
+        <v>10000.0</v>
       </c>
       <c r="M38" s="4" t="inlineStr">
         <is>
@@ -4554,7 +4554,7 @@
       </c>
       <c r="O38" s="4" t="inlineStr">
         <is>
-          <t>运营部所缺人员证照报名费用实际借款6240元，实际使用5460元，还款780元。</t>
+          <t>公司代打保证金10000，2019年3月15日招标机构退回</t>
         </is>
       </c>
       <c r="P38" s="4" t="inlineStr">
@@ -4569,22 +4569,22 @@
       </c>
       <c r="R38" s="4" t="inlineStr">
         <is>
-          <t>qhm@zhonghui.com</t>
+          <t>李婧</t>
         </is>
       </c>
       <c r="S38" s="4" t="inlineStr">
         <is>
-          <t>邱慧敏</t>
+          <t>李婧</t>
         </is>
       </c>
       <c r="T38" s="4" t="inlineStr">
         <is>
-          <t>2018-12-18 13:25:21</t>
+          <t>2019-03-15 12:21:46</t>
         </is>
       </c>
       <c r="U38" s="4" t="inlineStr">
         <is>
-          <t>2018-12-18 13:25:21</t>
+          <t>2019-03-15 12:26:19</t>
         </is>
       </c>
       <c r="V38" s="4" t="inlineStr">
@@ -4606,27 +4606,27 @@
     <row r="39">
       <c r="A39" s="4" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>41</t>
         </is>
       </c>
       <c r="B39" s="4" t="inlineStr">
         <is>
-          <t>PB1904100001</t>
+          <t>PB1904040001</t>
         </is>
       </c>
       <c r="C39" s="4" t="inlineStr">
         <is>
-          <t>赵铿</t>
+          <t>何贵跃</t>
         </is>
       </c>
       <c r="D39" s="4" t="inlineStr">
         <is>
-          <t>16003</t>
+          <t>15982</t>
         </is>
       </c>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>湖北分部</t>
+          <t>安徽分部</t>
         </is>
       </c>
       <c r="F39" s="4" t="inlineStr">
@@ -4651,14 +4651,14 @@
       </c>
       <c r="J39" s="4" t="inlineStr">
         <is>
-          <t>民生银行望江路支行</t>
+          <t>徽商银行青年路支行</t>
         </is>
       </c>
       <c r="K39" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="L39" s="4" t="n">
-        <v>1000000.0</v>
+        <v>30000.0</v>
       </c>
       <c r="M39" s="4" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
       </c>
       <c r="O39" s="4" t="inlineStr">
         <is>
-          <t>归还公司100万借款，</t>
+          <t>招标机构退回投标保证金</t>
         </is>
       </c>
       <c r="P39" s="4" t="inlineStr">
@@ -4687,22 +4687,22 @@
       </c>
       <c r="R39" s="4" t="inlineStr">
         <is>
-          <t>gaol@zhonghui.com</t>
+          <t>李婧</t>
         </is>
       </c>
       <c r="S39" s="4" t="inlineStr">
         <is>
-          <t>高磊</t>
+          <t>李婧</t>
         </is>
       </c>
       <c r="T39" s="4" t="inlineStr">
         <is>
-          <t>2019-04-10 08:53:29</t>
+          <t>2019-04-04 11:23:44</t>
         </is>
       </c>
       <c r="U39" s="4" t="inlineStr">
         <is>
-          <t>2019-04-10 08:53:29</t>
+          <t>2019-04-04 11:25:31</t>
         </is>
       </c>
       <c r="V39" s="4" t="inlineStr">
@@ -4724,27 +4724,27 @@
     <row r="40">
       <c r="A40" s="4" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>42</t>
         </is>
       </c>
       <c r="B40" s="4" t="inlineStr">
         <is>
-          <t>PB1907180001</t>
+          <t>PB1904090001</t>
         </is>
       </c>
       <c r="C40" s="4" t="inlineStr">
         <is>
-          <t>济南鲁信明泰工贸有限公司</t>
+          <t>檀经理</t>
         </is>
       </c>
       <c r="D40" s="4" t="inlineStr">
         <is>
-          <t>16000</t>
+          <t>15982</t>
         </is>
       </c>
       <c r="E40" s="4" t="inlineStr">
         <is>
-          <t>山东分部</t>
+          <t>安徽分部</t>
         </is>
       </c>
       <c r="F40" s="4" t="inlineStr">
@@ -4776,7 +4776,7 @@
         <v>0.0</v>
       </c>
       <c r="L40" s="4" t="n">
-        <v>15000.0</v>
+        <v>12238.0</v>
       </c>
       <c r="M40" s="4" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
       </c>
       <c r="O40" s="4" t="inlineStr">
         <is>
-          <t>投标贷保证金退回</t>
+          <t>2019年4月8日回至基本户工程款428227.35元</t>
         </is>
       </c>
       <c r="P40" s="4" t="inlineStr">
@@ -4805,22 +4805,22 @@
       </c>
       <c r="R40" s="4" t="inlineStr">
         <is>
-          <t>ljl@zhonghui.com</t>
+          <t>李婧</t>
         </is>
       </c>
       <c r="S40" s="4" t="inlineStr">
         <is>
-          <t>李靖亮</t>
+          <t>李婧</t>
         </is>
       </c>
       <c r="T40" s="4" t="inlineStr">
         <is>
-          <t>2019-07-18 10:52:46</t>
+          <t>2019-04-09 14:48:36</t>
         </is>
       </c>
       <c r="U40" s="4" t="inlineStr">
         <is>
-          <t>2019-07-18 10:52:46</t>
+          <t>2019-04-09 14:48:36</t>
         </is>
       </c>
       <c r="V40" s="4" t="inlineStr">
@@ -4842,27 +4842,27 @@
     <row r="41">
       <c r="A41" s="4" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>43</t>
         </is>
       </c>
       <c r="B41" s="4" t="inlineStr">
         <is>
-          <t>PB1908230001</t>
+          <t>PB1904100001</t>
         </is>
       </c>
       <c r="C41" s="4" t="inlineStr">
         <is>
-          <t>詹双双</t>
+          <t>赵铿</t>
         </is>
       </c>
       <c r="D41" s="4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16003</t>
         </is>
       </c>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>湖北分部</t>
         </is>
       </c>
       <c r="F41" s="4" t="inlineStr">
@@ -4887,14 +4887,14 @@
       </c>
       <c r="J41" s="4" t="inlineStr">
         <is>
-          <t>徽商银行青年路支行</t>
+          <t>民生银行望江路支行</t>
         </is>
       </c>
       <c r="K41" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="L41" s="4" t="n">
-        <v>8.68</v>
+        <v>1000000.0</v>
       </c>
       <c r="M41" s="4" t="inlineStr">
         <is>
@@ -4908,7 +4908,7 @@
       </c>
       <c r="O41" s="4" t="inlineStr">
         <is>
-          <t>归还该笔借款未花完款项 8.68元</t>
+          <t>归还公司100万借款，</t>
         </is>
       </c>
       <c r="P41" s="4" t="inlineStr">
@@ -4923,22 +4923,22 @@
       </c>
       <c r="R41" s="4" t="inlineStr">
         <is>
-          <t>zss@zhonghui.com</t>
+          <t>gaol@zhonghui.com</t>
         </is>
       </c>
       <c r="S41" s="4" t="inlineStr">
         <is>
-          <t>詹双双</t>
+          <t>高磊</t>
         </is>
       </c>
       <c r="T41" s="4" t="inlineStr">
         <is>
-          <t>2019-08-23 09:17:56</t>
+          <t>2019-04-10 08:53:29</t>
         </is>
       </c>
       <c r="U41" s="4" t="inlineStr">
         <is>
-          <t>2019-08-23 09:17:56</t>
+          <t>2019-04-10 08:53:29</t>
         </is>
       </c>
       <c r="V41" s="4" t="inlineStr">
@@ -4960,27 +4960,27 @@
     <row r="42">
       <c r="A42" s="4" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>44</t>
         </is>
       </c>
       <c r="B42" s="4" t="inlineStr">
         <is>
-          <t>PB1909090001</t>
+          <t>PB1904100002</t>
         </is>
       </c>
       <c r="C42" s="4" t="inlineStr">
         <is>
-          <t>杨东明</t>
+          <t>张鑫</t>
         </is>
       </c>
       <c r="D42" s="4" t="inlineStr">
         <is>
-          <t>16000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E42" s="4" t="inlineStr">
         <is>
-          <t>山东分部</t>
+          <t/>
         </is>
       </c>
       <c r="F42" s="4" t="inlineStr">
@@ -5012,7 +5012,7 @@
         <v>0.0</v>
       </c>
       <c r="L42" s="4" t="n">
-        <v>50000.0</v>
+        <v>3159.93</v>
       </c>
       <c r="M42" s="4" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
       </c>
       <c r="O42" s="4" t="inlineStr">
         <is>
-          <t>投标贷退回</t>
+          <t>钉钉培训8人费用去5人，剩余还款</t>
         </is>
       </c>
       <c r="P42" s="4" t="inlineStr">
@@ -5041,22 +5041,22 @@
       </c>
       <c r="R42" s="4" t="inlineStr">
         <is>
-          <t>ljl@zhonghui.com</t>
+          <t>zxin@zhonghui.com</t>
         </is>
       </c>
       <c r="S42" s="4" t="inlineStr">
         <is>
-          <t>李靖亮</t>
+          <t>张鑫</t>
         </is>
       </c>
       <c r="T42" s="4" t="inlineStr">
         <is>
-          <t>2019-09-09 10:08:21</t>
+          <t>2019-04-10 15:13:44</t>
         </is>
       </c>
       <c r="U42" s="4" t="inlineStr">
         <is>
-          <t>2019-09-09 10:08:21</t>
+          <t>2019-04-10 16:00:55</t>
         </is>
       </c>
       <c r="V42" s="4" t="inlineStr">
@@ -5078,27 +5078,27 @@
     <row r="43">
       <c r="A43" s="4" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>45</t>
         </is>
       </c>
       <c r="B43" s="4" t="inlineStr">
         <is>
-          <t>PB1909180001</t>
+          <t>PB1904220001</t>
         </is>
       </c>
       <c r="C43" s="4" t="inlineStr">
         <is>
-          <t>詹双双</t>
+          <t>戴亚斌</t>
         </is>
       </c>
       <c r="D43" s="4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16001</t>
         </is>
       </c>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>河北分部</t>
         </is>
       </c>
       <c r="F43" s="4" t="inlineStr">
@@ -5130,7 +5130,7 @@
         <v>0.0</v>
       </c>
       <c r="L43" s="4" t="n">
-        <v>15.4</v>
+        <v>200000.0</v>
       </c>
       <c r="M43" s="4" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
       </c>
       <c r="O43" s="4" t="inlineStr">
         <is>
-          <t>归还该笔借款未用完的款项（15.4元）</t>
+          <t>投标贷归还</t>
         </is>
       </c>
       <c r="P43" s="4" t="inlineStr">
@@ -5159,22 +5159,22 @@
       </c>
       <c r="R43" s="4" t="inlineStr">
         <is>
-          <t>zss@zhonghui.com</t>
+          <t>gaol@zhonghui.com</t>
         </is>
       </c>
       <c r="S43" s="4" t="inlineStr">
         <is>
-          <t>詹双双</t>
+          <t>高磊</t>
         </is>
       </c>
       <c r="T43" s="4" t="inlineStr">
         <is>
-          <t>2019-09-18 16:41:10</t>
+          <t>2019-04-22 10:57:45</t>
         </is>
       </c>
       <c r="U43" s="4" t="inlineStr">
         <is>
-          <t>2019-09-18 16:41:10</t>
+          <t>2019-04-22 10:57:45</t>
         </is>
       </c>
       <c r="V43" s="4" t="inlineStr">
@@ -5196,17 +5196,17 @@
     <row r="44">
       <c r="A44" s="4" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>46</t>
         </is>
       </c>
       <c r="B44" s="4" t="inlineStr">
         <is>
-          <t>PB1910140003</t>
+          <t>PB1904240001</t>
         </is>
       </c>
       <c r="C44" s="4" t="inlineStr">
         <is>
-          <t>庄朝阳</t>
+          <t>邓声全</t>
         </is>
       </c>
       <c r="D44" s="4" t="inlineStr">
@@ -5248,7 +5248,7 @@
         <v>0.0</v>
       </c>
       <c r="L44" s="4" t="n">
-        <v>80000.0</v>
+        <v>50000.0</v>
       </c>
       <c r="M44" s="4" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
       </c>
       <c r="O44" s="4" t="inlineStr">
         <is>
-          <t>投标贷退回</t>
+          <t>投标保证金退回，现归还借款</t>
         </is>
       </c>
       <c r="P44" s="4" t="inlineStr">
@@ -5287,12 +5287,12 @@
       </c>
       <c r="T44" s="4" t="inlineStr">
         <is>
-          <t>2019-10-14 13:42:21</t>
+          <t>2019-04-24 09:48:26</t>
         </is>
       </c>
       <c r="U44" s="4" t="inlineStr">
         <is>
-          <t>2019-10-14 13:43:33</t>
+          <t>2019-04-24 09:48:26</t>
         </is>
       </c>
       <c r="V44" s="4" t="inlineStr">
@@ -5314,27 +5314,27 @@
     <row r="45">
       <c r="A45" s="4" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>47</t>
         </is>
       </c>
       <c r="B45" s="4" t="inlineStr">
         <is>
-          <t>PB1910100001</t>
+          <t>PB1905270001</t>
         </is>
       </c>
       <c r="C45" s="4" t="inlineStr">
         <is>
-          <t>詹双双</t>
+          <t>邓声全</t>
         </is>
       </c>
       <c r="D45" s="4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16000</t>
         </is>
       </c>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>山东分部</t>
         </is>
       </c>
       <c r="F45" s="4" t="inlineStr">
@@ -5366,7 +5366,7 @@
         <v>0.0</v>
       </c>
       <c r="L45" s="4" t="n">
-        <v>1614.53</v>
+        <v>114112.0</v>
       </c>
       <c r="M45" s="4" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
       </c>
       <c r="O45" s="4" t="inlineStr">
         <is>
-          <t>归还该笔借款未花完的款项（1614.53元</t>
+          <t>归还办保函手续费</t>
         </is>
       </c>
       <c r="P45" s="4" t="inlineStr">
@@ -5395,22 +5395,22 @@
       </c>
       <c r="R45" s="4" t="inlineStr">
         <is>
-          <t>zss@zhonghui.com</t>
+          <t>ljl@zhonghui.com</t>
         </is>
       </c>
       <c r="S45" s="4" t="inlineStr">
         <is>
-          <t>詹双双</t>
+          <t>李靖亮</t>
         </is>
       </c>
       <c r="T45" s="4" t="inlineStr">
         <is>
-          <t>2019-10-10 14:39:40</t>
+          <t>2019-05-27 15:17:22</t>
         </is>
       </c>
       <c r="U45" s="4" t="inlineStr">
         <is>
-          <t>2019-10-10 14:39:40</t>
+          <t>2019-05-27 15:17:22</t>
         </is>
       </c>
       <c r="V45" s="4" t="inlineStr">
@@ -5432,27 +5432,27 @@
     <row r="46">
       <c r="A46" s="4" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>48</t>
         </is>
       </c>
       <c r="B46" s="4" t="inlineStr">
         <is>
-          <t>PB1911060001</t>
+          <t>PB1905280001</t>
         </is>
       </c>
       <c r="C46" s="4" t="inlineStr">
         <is>
-          <t>赵红建</t>
+          <t>檀作亮</t>
         </is>
       </c>
       <c r="D46" s="4" t="inlineStr">
         <is>
-          <t>16000</t>
+          <t>15982</t>
         </is>
       </c>
       <c r="E46" s="4" t="inlineStr">
         <is>
-          <t>山东分部</t>
+          <t>安徽分部</t>
         </is>
       </c>
       <c r="F46" s="4" t="inlineStr">
@@ -5484,7 +5484,7 @@
         <v>0.0</v>
       </c>
       <c r="L46" s="4" t="n">
-        <v>50000.0</v>
+        <v>20000.0</v>
       </c>
       <c r="M46" s="4" t="inlineStr">
         <is>
@@ -5498,7 +5498,7 @@
       </c>
       <c r="O46" s="4" t="inlineStr">
         <is>
-          <t>投标贷退回</t>
+          <t>2019年5月27日招标机构退回20000元保证金</t>
         </is>
       </c>
       <c r="P46" s="4" t="inlineStr">
@@ -5513,22 +5513,22 @@
       </c>
       <c r="R46" s="4" t="inlineStr">
         <is>
-          <t>ljl@zhonghui.com</t>
+          <t>李婧</t>
         </is>
       </c>
       <c r="S46" s="4" t="inlineStr">
         <is>
-          <t>李靖亮</t>
+          <t>李婧</t>
         </is>
       </c>
       <c r="T46" s="4" t="inlineStr">
         <is>
-          <t>2019-11-06 10:16:05</t>
+          <t>2019-05-28 10:57:28</t>
         </is>
       </c>
       <c r="U46" s="4" t="inlineStr">
         <is>
-          <t>2019-11-06 10:16:05</t>
+          <t>2019-05-28 10:57:28</t>
         </is>
       </c>
       <c r="V46" s="4" t="inlineStr">
@@ -5550,27 +5550,27 @@
     <row r="47">
       <c r="A47" s="4" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>49</t>
         </is>
       </c>
       <c r="B47" s="4" t="inlineStr">
         <is>
-          <t>PB1807270001</t>
+          <t>PB1905290001</t>
         </is>
       </c>
       <c r="C47" s="4" t="inlineStr">
         <is>
-          <t>葛海玲</t>
+          <t>杨海法</t>
         </is>
       </c>
       <c r="D47" s="4" t="inlineStr">
         <is>
-          <t>15980</t>
+          <t>16001</t>
         </is>
       </c>
       <c r="E47" s="4" t="inlineStr">
         <is>
-          <t>人力资源部</t>
+          <t>河北分部</t>
         </is>
       </c>
       <c r="F47" s="4" t="inlineStr">
@@ -5602,7 +5602,7 @@
         <v>0.0</v>
       </c>
       <c r="L47" s="4" t="n">
-        <v>251.0</v>
+        <v>100000.0</v>
       </c>
       <c r="M47" s="4" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
       </c>
       <c r="O47" s="4" t="inlineStr">
         <is>
-          <t>今年1月份充值公司话费剩余款项以缴换财务</t>
+          <t>工程款还借款</t>
         </is>
       </c>
       <c r="P47" s="4" t="inlineStr">
@@ -5631,22 +5631,22 @@
       </c>
       <c r="R47" s="4" t="inlineStr">
         <is>
-          <t>ghl@zhonghui.com</t>
+          <t>ljl@zhonghui.com</t>
         </is>
       </c>
       <c r="S47" s="4" t="inlineStr">
         <is>
-          <t>葛海玲</t>
+          <t>李靖亮</t>
         </is>
       </c>
       <c r="T47" s="4" t="inlineStr">
         <is>
-          <t>2018-07-27 14:50:17</t>
+          <t>2019-05-29 15:17:08</t>
         </is>
       </c>
       <c r="U47" s="4" t="inlineStr">
         <is>
-          <t>2018-07-27 14:50:17</t>
+          <t>2019-05-29 15:17:08</t>
         </is>
       </c>
       <c r="V47" s="4" t="inlineStr">
@@ -5668,27 +5668,27 @@
     <row r="48">
       <c r="A48" s="4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>50</t>
         </is>
       </c>
       <c r="B48" s="4" t="inlineStr">
         <is>
-          <t>PB1810080001</t>
+          <t>PB1906060001</t>
         </is>
       </c>
       <c r="C48" s="4" t="inlineStr">
         <is>
-          <t>叶文</t>
+          <t>晁振</t>
         </is>
       </c>
       <c r="D48" s="4" t="inlineStr">
         <is>
-          <t>15981</t>
+          <t>16000</t>
         </is>
       </c>
       <c r="E48" s="4" t="inlineStr">
         <is>
-          <t>营销中心</t>
+          <t>山东分部</t>
         </is>
       </c>
       <c r="F48" s="4" t="inlineStr">
@@ -5720,7 +5720,7 @@
         <v>0.0</v>
       </c>
       <c r="L48" s="4" t="n">
-        <v>15000.0</v>
+        <v>13000.0</v>
       </c>
       <c r="M48" s="4" t="inlineStr">
         <is>
@@ -5734,7 +5734,7 @@
       </c>
       <c r="O48" s="4" t="inlineStr">
         <is>
-          <t>此借款已从借款业务工资中扣除</t>
+          <t>投标贷保证金归还借款</t>
         </is>
       </c>
       <c r="P48" s="4" t="inlineStr">
@@ -5749,22 +5749,22 @@
       </c>
       <c r="R48" s="4" t="inlineStr">
         <is>
-          <t>叶文</t>
+          <t>ljl@zhonghui.com</t>
         </is>
       </c>
       <c r="S48" s="4" t="inlineStr">
         <is>
-          <t>叶文</t>
+          <t>李靖亮</t>
         </is>
       </c>
       <c r="T48" s="4" t="inlineStr">
         <is>
-          <t>2018-10-08 14:36:42</t>
+          <t>2019-06-06 13:42:47</t>
         </is>
       </c>
       <c r="U48" s="4" t="inlineStr">
         <is>
-          <t>2018-10-08 14:36:42</t>
+          <t>2019-06-06 13:42:47</t>
         </is>
       </c>
       <c r="V48" s="4" t="inlineStr">
@@ -5786,27 +5786,27 @@
     <row r="49">
       <c r="A49" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>51</t>
         </is>
       </c>
       <c r="B49" s="4" t="inlineStr">
         <is>
-          <t>PB1901080001</t>
+          <t>PB1906170001</t>
         </is>
       </c>
       <c r="C49" s="4" t="inlineStr">
         <is>
-          <t>叶文</t>
+          <t>詹双双</t>
         </is>
       </c>
       <c r="D49" s="4" t="inlineStr">
         <is>
-          <t>15981</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t>营销中心</t>
+          <t/>
         </is>
       </c>
       <c r="F49" s="4" t="inlineStr">
@@ -5838,7 +5838,7 @@
         <v>0.0</v>
       </c>
       <c r="L49" s="4" t="n">
-        <v>17000.0</v>
+        <v>3.2</v>
       </c>
       <c r="M49" s="4" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
       </c>
       <c r="O49" s="4" t="inlineStr">
         <is>
-          <t>9月的借款柯科10000   刘子琪4000  周大宝2000  周全1000已于小白核实已从业务工资中扣除</t>
+          <t>归还此借款未花完的剩余款项 3.2元</t>
         </is>
       </c>
       <c r="P49" s="4" t="inlineStr">
@@ -5867,22 +5867,22 @@
       </c>
       <c r="R49" s="4" t="inlineStr">
         <is>
-          <t>叶文</t>
+          <t>zss@zhonghui.com</t>
         </is>
       </c>
       <c r="S49" s="4" t="inlineStr">
         <is>
-          <t>叶文</t>
+          <t>詹双双</t>
         </is>
       </c>
       <c r="T49" s="4" t="inlineStr">
         <is>
-          <t>2019-01-08 10:54:50</t>
+          <t>2019-06-17 10:18:16</t>
         </is>
       </c>
       <c r="U49" s="4" t="inlineStr">
         <is>
-          <t>2019-01-08 10:54:50</t>
+          <t>2019-06-17 10:18:16</t>
         </is>
       </c>
       <c r="V49" s="4" t="inlineStr">
@@ -5904,27 +5904,27 @@
     <row r="50">
       <c r="A50" s="4" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>52</t>
         </is>
       </c>
       <c r="B50" s="4" t="inlineStr">
         <is>
-          <t>PB1903150001</t>
+          <t>PB1907030001</t>
         </is>
       </c>
       <c r="C50" s="4" t="inlineStr">
         <is>
-          <t>曹荣明</t>
+          <t>詹双双</t>
         </is>
       </c>
       <c r="D50" s="4" t="inlineStr">
         <is>
-          <t>15982</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E50" s="4" t="inlineStr">
         <is>
-          <t>安徽分部</t>
+          <t/>
         </is>
       </c>
       <c r="F50" s="4" t="inlineStr">
@@ -5956,7 +5956,7 @@
         <v>0.0</v>
       </c>
       <c r="L50" s="4" t="n">
-        <v>10000.0</v>
+        <v>241.5</v>
       </c>
       <c r="M50" s="4" t="inlineStr">
         <is>
@@ -5970,7 +5970,7 @@
       </c>
       <c r="O50" s="4" t="inlineStr">
         <is>
-          <t>公司代打保证金10000，2019年3月15日招标机构退回</t>
+          <t>归还5月17号的备用金剩余款项 计241.5元</t>
         </is>
       </c>
       <c r="P50" s="4" t="inlineStr">
@@ -5985,22 +5985,22 @@
       </c>
       <c r="R50" s="4" t="inlineStr">
         <is>
-          <t>李婧</t>
+          <t>zss@zhonghui.com</t>
         </is>
       </c>
       <c r="S50" s="4" t="inlineStr">
         <is>
-          <t>李婧</t>
+          <t>詹双双</t>
         </is>
       </c>
       <c r="T50" s="4" t="inlineStr">
         <is>
-          <t>2019-03-15 12:21:46</t>
+          <t>2019-07-03 08:40:31</t>
         </is>
       </c>
       <c r="U50" s="4" t="inlineStr">
         <is>
-          <t>2019-03-15 12:26:19</t>
+          <t>2019-07-03 08:40:31</t>
         </is>
       </c>
       <c r="V50" s="4" t="inlineStr">
@@ -6022,17 +6022,17 @@
     <row r="51">
       <c r="A51" s="4" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>53</t>
         </is>
       </c>
       <c r="B51" s="4" t="inlineStr">
         <is>
-          <t>PB1904040001</t>
+          <t>PB1907050001</t>
         </is>
       </c>
       <c r="C51" s="4" t="inlineStr">
         <is>
-          <t>何贵跃</t>
+          <t>檀作亮</t>
         </is>
       </c>
       <c r="D51" s="4" t="inlineStr">
@@ -6074,7 +6074,7 @@
         <v>0.0</v>
       </c>
       <c r="L51" s="4" t="n">
-        <v>30000.0</v>
+        <v>100000.0</v>
       </c>
       <c r="M51" s="4" t="inlineStr">
         <is>
@@ -6088,7 +6088,7 @@
       </c>
       <c r="O51" s="4" t="inlineStr">
         <is>
-          <t>招标机构退回投标保证金</t>
+          <t>檀作亮6.12公司借入100000</t>
         </is>
       </c>
       <c r="P51" s="4" t="inlineStr">
@@ -6103,22 +6103,22 @@
       </c>
       <c r="R51" s="4" t="inlineStr">
         <is>
-          <t>李婧</t>
+          <t>曾文韬</t>
         </is>
       </c>
       <c r="S51" s="4" t="inlineStr">
         <is>
-          <t>李婧</t>
+          <t>曾文韬</t>
         </is>
       </c>
       <c r="T51" s="4" t="inlineStr">
         <is>
-          <t>2019-04-04 11:23:44</t>
+          <t>2019-07-05 09:47:18</t>
         </is>
       </c>
       <c r="U51" s="4" t="inlineStr">
         <is>
-          <t>2019-04-04 11:25:31</t>
+          <t>2019-07-05 09:47:18</t>
         </is>
       </c>
       <c r="V51" s="4" t="inlineStr">
@@ -6140,27 +6140,27 @@
     <row r="52">
       <c r="A52" s="4" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>54</t>
         </is>
       </c>
       <c r="B52" s="4" t="inlineStr">
         <is>
-          <t>PB1904220001</t>
+          <t>PB1907080001</t>
         </is>
       </c>
       <c r="C52" s="4" t="inlineStr">
         <is>
-          <t>戴亚斌</t>
+          <t>刘保</t>
         </is>
       </c>
       <c r="D52" s="4" t="inlineStr">
         <is>
-          <t>16001</t>
+          <t>15982</t>
         </is>
       </c>
       <c r="E52" s="4" t="inlineStr">
         <is>
-          <t>河北分部</t>
+          <t>安徽分部</t>
         </is>
       </c>
       <c r="F52" s="4" t="inlineStr">
@@ -6192,7 +6192,7 @@
         <v>0.0</v>
       </c>
       <c r="L52" s="4" t="n">
-        <v>200000.0</v>
+        <v>65000.0</v>
       </c>
       <c r="M52" s="4" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
       </c>
       <c r="O52" s="4" t="inlineStr">
         <is>
-          <t>投标贷归还</t>
+          <t>投标贷还款</t>
         </is>
       </c>
       <c r="P52" s="4" t="inlineStr">
@@ -6221,22 +6221,22 @@
       </c>
       <c r="R52" s="4" t="inlineStr">
         <is>
-          <t>gaol@zhonghui.com</t>
+          <t>曾文韬</t>
         </is>
       </c>
       <c r="S52" s="4" t="inlineStr">
         <is>
-          <t>高磊</t>
+          <t>曾文韬</t>
         </is>
       </c>
       <c r="T52" s="4" t="inlineStr">
         <is>
-          <t>2019-04-22 10:57:45</t>
+          <t>2019-07-08 09:32:26</t>
         </is>
       </c>
       <c r="U52" s="4" t="inlineStr">
         <is>
-          <t>2019-04-22 10:57:45</t>
+          <t>2019-07-08 09:32:26</t>
         </is>
       </c>
       <c r="V52" s="4" t="inlineStr">
@@ -6258,27 +6258,27 @@
     <row r="53">
       <c r="A53" s="4" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>55</t>
         </is>
       </c>
       <c r="B53" s="4" t="inlineStr">
         <is>
-          <t>PB1904240001</t>
+          <t>PB1907100001</t>
         </is>
       </c>
       <c r="C53" s="4" t="inlineStr">
         <is>
-          <t>邓声全</t>
+          <t>詹双双</t>
         </is>
       </c>
       <c r="D53" s="4" t="inlineStr">
         <is>
-          <t>16000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E53" s="4" t="inlineStr">
         <is>
-          <t>山东分部</t>
+          <t/>
         </is>
       </c>
       <c r="F53" s="4" t="inlineStr">
@@ -6310,7 +6310,7 @@
         <v>0.0</v>
       </c>
       <c r="L53" s="4" t="n">
-        <v>50000.0</v>
+        <v>26.34</v>
       </c>
       <c r="M53" s="4" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
       </c>
       <c r="O53" s="4" t="inlineStr">
         <is>
-          <t>投标保证金退回，现归还借款</t>
+          <t>归还该笔借款未用完的资金计26.34元</t>
         </is>
       </c>
       <c r="P53" s="4" t="inlineStr">
@@ -6339,22 +6339,22 @@
       </c>
       <c r="R53" s="4" t="inlineStr">
         <is>
-          <t>ljl@zhonghui.com</t>
+          <t>zss@zhonghui.com</t>
         </is>
       </c>
       <c r="S53" s="4" t="inlineStr">
         <is>
-          <t>李靖亮</t>
+          <t>詹双双</t>
         </is>
       </c>
       <c r="T53" s="4" t="inlineStr">
         <is>
-          <t>2019-04-24 09:48:26</t>
+          <t>2019-07-10 16:35:39</t>
         </is>
       </c>
       <c r="U53" s="4" t="inlineStr">
         <is>
-          <t>2019-04-24 09:48:26</t>
+          <t>2019-07-10 16:35:39</t>
         </is>
       </c>
       <c r="V53" s="4" t="inlineStr">
@@ -6376,27 +6376,27 @@
     <row r="54">
       <c r="A54" s="4" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>56</t>
         </is>
       </c>
       <c r="B54" s="4" t="inlineStr">
         <is>
-          <t>PB1907030001</t>
+          <t>PB1907120001</t>
         </is>
       </c>
       <c r="C54" s="4" t="inlineStr">
         <is>
-          <t>詹双双</t>
+          <t>蔡德耀</t>
         </is>
       </c>
       <c r="D54" s="4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15991</t>
         </is>
       </c>
       <c r="E54" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>财务中心</t>
         </is>
       </c>
       <c r="F54" s="4" t="inlineStr">
@@ -6428,7 +6428,7 @@
         <v>0.0</v>
       </c>
       <c r="L54" s="4" t="n">
-        <v>241.5</v>
+        <v>302.6</v>
       </c>
       <c r="M54" s="4" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
       </c>
       <c r="O54" s="4" t="inlineStr">
         <is>
-          <t>归还5月17号的备用金剩余款项 计241.5元</t>
+          <t>归还借款剩余款项302.6</t>
         </is>
       </c>
       <c r="P54" s="4" t="inlineStr">
@@ -6457,22 +6457,22 @@
       </c>
       <c r="R54" s="4" t="inlineStr">
         <is>
-          <t>zss@zhonghui.com</t>
+          <t>cdy@zhonghui.com</t>
         </is>
       </c>
       <c r="S54" s="4" t="inlineStr">
         <is>
-          <t>詹双双</t>
+          <t>蔡德耀</t>
         </is>
       </c>
       <c r="T54" s="4" t="inlineStr">
         <is>
-          <t>2019-07-03 08:40:31</t>
+          <t>2019-07-12 15:43:54</t>
         </is>
       </c>
       <c r="U54" s="4" t="inlineStr">
         <is>
-          <t>2019-07-03 08:40:31</t>
+          <t>2019-07-12 15:43:54</t>
         </is>
       </c>
       <c r="V54" s="4" t="inlineStr">
@@ -6494,27 +6494,27 @@
     <row r="55">
       <c r="A55" s="4" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>57</t>
         </is>
       </c>
       <c r="B55" s="4" t="inlineStr">
         <is>
-          <t>PB1908080001</t>
+          <t>PB1907150001</t>
         </is>
       </c>
       <c r="C55" s="4" t="inlineStr">
         <is>
-          <t>李洪志</t>
+          <t>李刚</t>
         </is>
       </c>
       <c r="D55" s="4" t="inlineStr">
         <is>
-          <t>16036</t>
+          <t>16003</t>
         </is>
       </c>
       <c r="E55" s="4" t="inlineStr">
         <is>
-          <t>江苏分部</t>
+          <t>湖北分部</t>
         </is>
       </c>
       <c r="F55" s="4" t="inlineStr">
@@ -6546,7 +6546,7 @@
         <v>0.0</v>
       </c>
       <c r="L55" s="4" t="n">
-        <v>150000.0</v>
+        <v>35880.0</v>
       </c>
       <c r="M55" s="4" t="inlineStr">
         <is>
@@ -6560,7 +6560,7 @@
       </c>
       <c r="O55" s="4" t="inlineStr">
         <is>
-          <t>8.6号回基本户150000</t>
+          <t>客户胡晶晶账户支付徽商银行青年路支行账户35880，用于归还公司投标保证金借款</t>
         </is>
       </c>
       <c r="P55" s="4" t="inlineStr">
@@ -6575,22 +6575,22 @@
       </c>
       <c r="R55" s="4" t="inlineStr">
         <is>
-          <t>zhanyp@zhonghui.com</t>
+          <t>gaol@zhonghui.com</t>
         </is>
       </c>
       <c r="S55" s="4" t="inlineStr">
         <is>
-          <t>詹亚平</t>
+          <t>高磊</t>
         </is>
       </c>
       <c r="T55" s="4" t="inlineStr">
         <is>
-          <t>2019-08-08 08:58:24</t>
+          <t>2019-07-15 21:26:41</t>
         </is>
       </c>
       <c r="U55" s="4" t="inlineStr">
         <is>
-          <t>2019-08-08 08:58:24</t>
+          <t>2019-07-17 11:10:24</t>
         </is>
       </c>
       <c r="V55" s="4" t="inlineStr">
@@ -6612,27 +6612,27 @@
     <row r="56">
       <c r="A56" s="4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>58</t>
         </is>
       </c>
       <c r="B56" s="4" t="inlineStr">
         <is>
-          <t>PB1807250002</t>
+          <t>PB1907150002</t>
         </is>
       </c>
       <c r="C56" s="4" t="inlineStr">
         <is>
-          <t>孙杰</t>
+          <t>李刚</t>
         </is>
       </c>
       <c r="D56" s="4" t="inlineStr">
         <is>
-          <t>15993</t>
+          <t>16003</t>
         </is>
       </c>
       <c r="E56" s="4" t="inlineStr">
         <is>
-          <t>运营中心</t>
+          <t>湖北分部</t>
         </is>
       </c>
       <c r="F56" s="4" t="inlineStr">
@@ -6664,7 +6664,7 @@
         <v>0.0</v>
       </c>
       <c r="L56" s="4" t="n">
-        <v>1156.3</v>
+        <v>84120.0</v>
       </c>
       <c r="M56" s="4" t="inlineStr">
         <is>
@@ -6678,7 +6678,7 @@
       </c>
       <c r="O56" s="4" t="inlineStr">
         <is>
-          <t>项目开票预借12000，实际使用10843.7</t>
+          <t>南方工业科技贸易有限公司退退回投标保证金84120</t>
         </is>
       </c>
       <c r="P56" s="4" t="inlineStr">
@@ -6693,22 +6693,22 @@
       </c>
       <c r="R56" s="4" t="inlineStr">
         <is>
-          <t>sunj@zhonghui.com</t>
+          <t>gaol@zhonghui.com</t>
         </is>
       </c>
       <c r="S56" s="4" t="inlineStr">
         <is>
-          <t>孙杰</t>
+          <t>高磊</t>
         </is>
       </c>
       <c r="T56" s="4" t="inlineStr">
         <is>
-          <t>2018-07-25 16:06:22</t>
+          <t>2019-07-15 21:31:50</t>
         </is>
       </c>
       <c r="U56" s="4" t="inlineStr">
         <is>
-          <t>2018-07-25 16:06:22</t>
+          <t>2019-07-15 21:31:50</t>
         </is>
       </c>
       <c r="V56" s="4" t="inlineStr">
@@ -6730,27 +6730,27 @@
     <row r="57">
       <c r="A57" s="4" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>59</t>
         </is>
       </c>
       <c r="B57" s="4" t="inlineStr">
         <is>
-          <t>PB1808160001</t>
+          <t>PB1907150003</t>
         </is>
       </c>
       <c r="C57" s="4" t="inlineStr">
         <is>
-          <t>李兵</t>
+          <t>李志强</t>
         </is>
       </c>
       <c r="D57" s="4" t="inlineStr">
         <is>
-          <t>15981</t>
+          <t>16014</t>
         </is>
       </c>
       <c r="E57" s="4" t="inlineStr">
         <is>
-          <t>营销中心</t>
+          <t>江西分部</t>
         </is>
       </c>
       <c r="F57" s="4" t="inlineStr">
@@ -6782,7 +6782,7 @@
         <v>0.0</v>
       </c>
       <c r="L57" s="4" t="n">
-        <v>734.0</v>
+        <v>773000.0</v>
       </c>
       <c r="M57" s="4" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
       </c>
       <c r="O57" s="4" t="inlineStr">
         <is>
-          <t>已转账</t>
+          <t>招标机构退回投标保证金</t>
         </is>
       </c>
       <c r="P57" s="4" t="inlineStr">
@@ -6811,22 +6811,22 @@
       </c>
       <c r="R57" s="4" t="inlineStr">
         <is>
-          <t>李兵</t>
+          <t>gaol@zhonghui.com</t>
         </is>
       </c>
       <c r="S57" s="4" t="inlineStr">
         <is>
-          <t>李兵</t>
+          <t>高磊</t>
         </is>
       </c>
       <c r="T57" s="4" t="inlineStr">
         <is>
-          <t>2018-08-16 15:57:01</t>
+          <t>2019-07-15 21:34:44</t>
         </is>
       </c>
       <c r="U57" s="4" t="inlineStr">
         <is>
-          <t>2018-08-16 15:57:01</t>
+          <t>2019-07-15 21:34:44</t>
         </is>
       </c>
       <c r="V57" s="4" t="inlineStr">
@@ -6848,27 +6848,27 @@
     <row r="58">
       <c r="A58" s="4" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>60</t>
         </is>
       </c>
       <c r="B58" s="4" t="inlineStr">
         <is>
-          <t>PB1810090001</t>
+          <t>PB1907150004</t>
         </is>
       </c>
       <c r="C58" s="4" t="inlineStr">
         <is>
-          <t>聂渊</t>
+          <t>赵铿</t>
         </is>
       </c>
       <c r="D58" s="4" t="inlineStr">
         <is>
-          <t>16026</t>
+          <t>16003</t>
         </is>
       </c>
       <c r="E58" s="4" t="inlineStr">
         <is>
-          <t>信息化中心</t>
+          <t>湖北分部</t>
         </is>
       </c>
       <c r="F58" s="4" t="inlineStr">
@@ -6900,7 +6900,7 @@
         <v>0.0</v>
       </c>
       <c r="L58" s="4" t="n">
-        <v>11.53</v>
+        <v>80000.0</v>
       </c>
       <c r="M58" s="4" t="inlineStr">
         <is>
@@ -6914,7 +6914,7 @@
       </c>
       <c r="O58" s="4" t="inlineStr">
         <is>
-          <t>智能印章阿里云服务器更改带宽为5M,借款1518.35,实际支出1506.82,归还剩余借款11.53</t>
+          <t>归还公司投标贷款</t>
         </is>
       </c>
       <c r="P58" s="4" t="inlineStr">
@@ -6929,22 +6929,22 @@
       </c>
       <c r="R58" s="4" t="inlineStr">
         <is>
-          <t>ny@zhonghui.com</t>
+          <t>赵铿</t>
         </is>
       </c>
       <c r="S58" s="4" t="inlineStr">
         <is>
-          <t>聂渊</t>
+          <t>赵铿</t>
         </is>
       </c>
       <c r="T58" s="4" t="inlineStr">
         <is>
-          <t>2018-10-09 16:20:07</t>
+          <t>2019-07-15 21:37:11</t>
         </is>
       </c>
       <c r="U58" s="4" t="inlineStr">
         <is>
-          <t>2018-10-09 16:20:07</t>
+          <t>2019-07-15 21:37:11</t>
         </is>
       </c>
       <c r="V58" s="4" t="inlineStr">
@@ -6966,27 +6966,27 @@
     <row r="59">
       <c r="A59" s="4" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>61</t>
         </is>
       </c>
       <c r="B59" s="4" t="inlineStr">
         <is>
-          <t>PB1811220002</t>
+          <t>PB1907160001</t>
         </is>
       </c>
       <c r="C59" s="4" t="inlineStr">
         <is>
-          <t>湖北分公司</t>
+          <t>于伟林</t>
         </is>
       </c>
       <c r="D59" s="4" t="inlineStr">
         <is>
-          <t>16003</t>
+          <t>16000</t>
         </is>
       </c>
       <c r="E59" s="4" t="inlineStr">
         <is>
-          <t>湖北分部</t>
+          <t>山东分部</t>
         </is>
       </c>
       <c r="F59" s="4" t="inlineStr">
@@ -7018,7 +7018,7 @@
         <v>0.0</v>
       </c>
       <c r="L59" s="4" t="n">
-        <v>100000.0</v>
+        <v>20000.0</v>
       </c>
       <c r="M59" s="4" t="inlineStr">
         <is>
@@ -7032,7 +7032,7 @@
       </c>
       <c r="O59" s="4" t="inlineStr">
         <is>
-          <t>归还通山县中医院中央空调采购及安装项目投标贷</t>
+          <t>投标贷保证金退回</t>
         </is>
       </c>
       <c r="P59" s="4" t="inlineStr">
@@ -7047,22 +7047,22 @@
       </c>
       <c r="R59" s="4" t="inlineStr">
         <is>
-          <t>gaol@zhonghui.com</t>
+          <t>ljl@zhonghui.com</t>
         </is>
       </c>
       <c r="S59" s="4" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>李靖亮</t>
         </is>
       </c>
       <c r="T59" s="4" t="inlineStr">
         <is>
-          <t>2018-11-22 15:18:24</t>
+          <t>2019-07-16 14:10:23</t>
         </is>
       </c>
       <c r="U59" s="4" t="inlineStr">
         <is>
-          <t>2019-10-21 13:54:14</t>
+          <t>2019-07-16 14:10:23</t>
         </is>
       </c>
       <c r="V59" s="4" t="inlineStr">
@@ -7084,27 +7084,27 @@
     <row r="60">
       <c r="A60" s="4" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>62</t>
         </is>
       </c>
       <c r="B60" s="4" t="inlineStr">
         <is>
-          <t>PB1812010001</t>
+          <t>PB1907180001</t>
         </is>
       </c>
       <c r="C60" s="4" t="inlineStr">
         <is>
-          <t>武其伟</t>
+          <t>济南鲁信明泰工贸有限公司</t>
         </is>
       </c>
       <c r="D60" s="4" t="inlineStr">
         <is>
-          <t>15982</t>
+          <t>16000</t>
         </is>
       </c>
       <c r="E60" s="4" t="inlineStr">
         <is>
-          <t>安徽分部</t>
+          <t>山东分部</t>
         </is>
       </c>
       <c r="F60" s="4" t="inlineStr">
@@ -7136,7 +7136,7 @@
         <v>0.0</v>
       </c>
       <c r="L60" s="4" t="n">
-        <v>18000.0</v>
+        <v>15000.0</v>
       </c>
       <c r="M60" s="4" t="inlineStr">
         <is>
@@ -7150,7 +7150,7 @@
       </c>
       <c r="O60" s="4" t="inlineStr">
         <is>
-          <t>11月30日收阜阳监狱项目投标保证金退还</t>
+          <t>投标贷保证金退回</t>
         </is>
       </c>
       <c r="P60" s="4" t="inlineStr">
@@ -7165,22 +7165,22 @@
       </c>
       <c r="R60" s="4" t="inlineStr">
         <is>
-          <t>余宏伟</t>
+          <t>ljl@zhonghui.com</t>
         </is>
       </c>
       <c r="S60" s="4" t="inlineStr">
         <is>
-          <t>余宏伟</t>
+          <t>李靖亮</t>
         </is>
       </c>
       <c r="T60" s="4" t="inlineStr">
         <is>
-          <t>2018-12-01 10:16:03</t>
+          <t>2019-07-18 10:52:46</t>
         </is>
       </c>
       <c r="U60" s="4" t="inlineStr">
         <is>
-          <t>2018-12-01 10:16:03</t>
+          <t>2019-07-18 10:52:46</t>
         </is>
       </c>
       <c r="V60" s="4" t="inlineStr">
@@ -7202,27 +7202,27 @@
     <row r="61">
       <c r="A61" s="4" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>63</t>
         </is>
       </c>
       <c r="B61" s="4" t="inlineStr">
         <is>
-          <t>PB1901160001</t>
+          <t>PB1907310001</t>
         </is>
       </c>
       <c r="C61" s="4" t="inlineStr">
         <is>
-          <t>顾鸿彬</t>
+          <t>孙宝庆</t>
         </is>
       </c>
       <c r="D61" s="4" t="inlineStr">
         <is>
-          <t>15993</t>
+          <t>16000</t>
         </is>
       </c>
       <c r="E61" s="4" t="inlineStr">
         <is>
-          <t>运营中心</t>
+          <t>山东分部</t>
         </is>
       </c>
       <c r="F61" s="4" t="inlineStr">
@@ -7254,7 +7254,7 @@
         <v>0.0</v>
       </c>
       <c r="L61" s="4" t="n">
-        <v>1000.0</v>
+        <v>360000.0</v>
       </c>
       <c r="M61" s="4" t="inlineStr">
         <is>
@@ -7268,7 +7268,7 @@
       </c>
       <c r="O61" s="4" t="inlineStr">
         <is>
-          <t>18年度评优奖金</t>
+          <t>归还公司借款</t>
         </is>
       </c>
       <c r="P61" s="4" t="inlineStr">
@@ -7283,22 +7283,22 @@
       </c>
       <c r="R61" s="4" t="inlineStr">
         <is>
-          <t>ghb@zhonghui.com</t>
+          <t>ljl@zhonghui.com</t>
         </is>
       </c>
       <c r="S61" s="4" t="inlineStr">
         <is>
-          <t>顾鸿彬</t>
+          <t>李靖亮</t>
         </is>
       </c>
       <c r="T61" s="4" t="inlineStr">
         <is>
-          <t>2019-01-16 14:17:15</t>
+          <t>2019-07-31 14:43:25</t>
         </is>
       </c>
       <c r="U61" s="4" t="inlineStr">
         <is>
-          <t>2019-01-16 14:17:15</t>
+          <t>2019-07-31 14:44:14</t>
         </is>
       </c>
       <c r="V61" s="4" t="inlineStr">
@@ -7320,27 +7320,27 @@
     <row r="62">
       <c r="A62" s="4" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>64</t>
         </is>
       </c>
       <c r="B62" s="4" t="inlineStr">
         <is>
-          <t>PB1907120001</t>
+          <t>PB1908080001</t>
         </is>
       </c>
       <c r="C62" s="4" t="inlineStr">
         <is>
-          <t>蔡德耀</t>
+          <t>李洪志</t>
         </is>
       </c>
       <c r="D62" s="4" t="inlineStr">
         <is>
-          <t>15991</t>
+          <t>16036</t>
         </is>
       </c>
       <c r="E62" s="4" t="inlineStr">
         <is>
-          <t>财务中心</t>
+          <t>江苏分部</t>
         </is>
       </c>
       <c r="F62" s="4" t="inlineStr">
@@ -7372,7 +7372,7 @@
         <v>0.0</v>
       </c>
       <c r="L62" s="4" t="n">
-        <v>302.6</v>
+        <v>150000.0</v>
       </c>
       <c r="M62" s="4" t="inlineStr">
         <is>
@@ -7386,7 +7386,7 @@
       </c>
       <c r="O62" s="4" t="inlineStr">
         <is>
-          <t>归还借款剩余款项302.6</t>
+          <t>8.6号回基本户150000</t>
         </is>
       </c>
       <c r="P62" s="4" t="inlineStr">
@@ -7401,22 +7401,22 @@
       </c>
       <c r="R62" s="4" t="inlineStr">
         <is>
-          <t>cdy@zhonghui.com</t>
+          <t>zhanyp@zhonghui.com</t>
         </is>
       </c>
       <c r="S62" s="4" t="inlineStr">
         <is>
-          <t>蔡德耀</t>
+          <t>詹亚平</t>
         </is>
       </c>
       <c r="T62" s="4" t="inlineStr">
         <is>
-          <t>2019-07-12 15:43:54</t>
+          <t>2019-08-08 08:58:24</t>
         </is>
       </c>
       <c r="U62" s="4" t="inlineStr">
         <is>
-          <t>2019-07-12 15:43:54</t>
+          <t>2019-08-08 08:58:24</t>
         </is>
       </c>
       <c r="V62" s="4" t="inlineStr">
@@ -7438,27 +7438,27 @@
     <row r="63">
       <c r="A63" s="4" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>65</t>
         </is>
       </c>
       <c r="B63" s="4" t="inlineStr">
         <is>
-          <t>PB1907150004</t>
+          <t>PB1908120001</t>
         </is>
       </c>
       <c r="C63" s="4" t="inlineStr">
         <is>
-          <t>赵铿</t>
+          <t>魏文早</t>
         </is>
       </c>
       <c r="D63" s="4" t="inlineStr">
         <is>
-          <t>16003</t>
+          <t>15982</t>
         </is>
       </c>
       <c r="E63" s="4" t="inlineStr">
         <is>
-          <t>湖北分部</t>
+          <t>安徽分部</t>
         </is>
       </c>
       <c r="F63" s="4" t="inlineStr">
@@ -7490,7 +7490,7 @@
         <v>0.0</v>
       </c>
       <c r="L63" s="4" t="n">
-        <v>80000.0</v>
+        <v>20000.0</v>
       </c>
       <c r="M63" s="4" t="inlineStr">
         <is>
@@ -7504,7 +7504,7 @@
       </c>
       <c r="O63" s="4" t="inlineStr">
         <is>
-          <t>归还公司投标贷款</t>
+          <t>2019年中国联通安徽阜阳管理及辅助用房-综合楼 空调更新改造项目 保证金还款</t>
         </is>
       </c>
       <c r="P63" s="4" t="inlineStr">
@@ -7519,22 +7519,22 @@
       </c>
       <c r="R63" s="4" t="inlineStr">
         <is>
-          <t>赵铿</t>
+          <t>zqq@zhonghui.com</t>
         </is>
       </c>
       <c r="S63" s="4" t="inlineStr">
         <is>
-          <t>赵铿</t>
+          <t>周倩倩</t>
         </is>
       </c>
       <c r="T63" s="4" t="inlineStr">
         <is>
-          <t>2019-07-15 21:37:11</t>
+          <t>2019-08-12 15:11:41</t>
         </is>
       </c>
       <c r="U63" s="4" t="inlineStr">
         <is>
-          <t>2019-07-15 21:37:11</t>
+          <t>2019-08-12 15:11:41</t>
         </is>
       </c>
       <c r="V63" s="4" t="inlineStr">
@@ -7556,27 +7556,27 @@
     <row r="64">
       <c r="A64" s="4" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>66</t>
         </is>
       </c>
       <c r="B64" s="4" t="inlineStr">
         <is>
-          <t>PB1909050001</t>
+          <t>PB1908130001</t>
         </is>
       </c>
       <c r="C64" s="4" t="inlineStr">
         <is>
-          <t>李洪志</t>
+          <t>晁振</t>
         </is>
       </c>
       <c r="D64" s="4" t="inlineStr">
         <is>
-          <t>16036</t>
+          <t>16000</t>
         </is>
       </c>
       <c r="E64" s="4" t="inlineStr">
         <is>
-          <t>江苏分部</t>
+          <t>山东分部</t>
         </is>
       </c>
       <c r="F64" s="4" t="inlineStr">
@@ -7601,14 +7601,14 @@
       </c>
       <c r="J64" s="4" t="inlineStr">
         <is>
-          <t>胡冬梅</t>
+          <t>徽商银行青年路支行</t>
         </is>
       </c>
       <c r="K64" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="L64" s="4" t="n">
-        <v>15.0</v>
+        <v>10000.0</v>
       </c>
       <c r="M64" s="4" t="inlineStr">
         <is>
@@ -7622,7 +7622,7 @@
       </c>
       <c r="O64" s="4" t="inlineStr">
         <is>
-          <t>9.15到胡冬梅卡上15元</t>
+          <t>投标贷退回</t>
         </is>
       </c>
       <c r="P64" s="4" t="inlineStr">
@@ -7637,22 +7637,22 @@
       </c>
       <c r="R64" s="4" t="inlineStr">
         <is>
-          <t>zhanyp@zhonghui.com</t>
+          <t>ljl@zhonghui.com</t>
         </is>
       </c>
       <c r="S64" s="4" t="inlineStr">
         <is>
-          <t>詹亚平</t>
+          <t>李靖亮</t>
         </is>
       </c>
       <c r="T64" s="4" t="inlineStr">
         <is>
-          <t>2019-09-05 16:55:30</t>
+          <t>2019-08-13 10:10:40</t>
         </is>
       </c>
       <c r="U64" s="4" t="inlineStr">
         <is>
-          <t>2019-09-05 16:55:30</t>
+          <t>2019-08-13 10:10:40</t>
         </is>
       </c>
       <c r="V64" s="4" t="inlineStr">
@@ -7674,27 +7674,27 @@
     <row r="65">
       <c r="A65" s="4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>67</t>
         </is>
       </c>
       <c r="B65" s="4" t="inlineStr">
         <is>
-          <t>PB1909230002</t>
+          <t>PB1908220001</t>
         </is>
       </c>
       <c r="C65" s="4" t="inlineStr">
         <is>
-          <t>詹双双</t>
+          <t>邱慧敏</t>
         </is>
       </c>
       <c r="D65" s="4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15980</t>
         </is>
       </c>
       <c r="E65" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>人力资源部</t>
         </is>
       </c>
       <c r="F65" s="4" t="inlineStr">
@@ -7726,7 +7726,7 @@
         <v>0.0</v>
       </c>
       <c r="L65" s="4" t="n">
-        <v>23.74</v>
+        <v>35.0</v>
       </c>
       <c r="M65" s="4" t="inlineStr">
         <is>
@@ -7740,7 +7740,7 @@
       </c>
       <c r="O65" s="4" t="inlineStr">
         <is>
-          <t>归还该笔借款未花完的款项23.74元</t>
+          <t>三体系老师住宿费及招待费</t>
         </is>
       </c>
       <c r="P65" s="4" t="inlineStr">
@@ -7755,22 +7755,22 @@
       </c>
       <c r="R65" s="4" t="inlineStr">
         <is>
-          <t>zss@zhonghui.com</t>
+          <t>qhm@zhonghui.com</t>
         </is>
       </c>
       <c r="S65" s="4" t="inlineStr">
         <is>
-          <t>詹双双</t>
+          <t>邱慧敏</t>
         </is>
       </c>
       <c r="T65" s="4" t="inlineStr">
         <is>
-          <t>2019-09-23 15:02:47</t>
+          <t>2019-08-22 09:29:56</t>
         </is>
       </c>
       <c r="U65" s="4" t="inlineStr">
         <is>
-          <t>2019-09-23 15:02:47</t>
+          <t>2019-08-22 09:30:16</t>
         </is>
       </c>
       <c r="V65" s="4" t="inlineStr">
@@ -7792,27 +7792,27 @@
     <row r="66">
       <c r="A66" s="4" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>68</t>
         </is>
       </c>
       <c r="B66" s="4" t="inlineStr">
         <is>
-          <t>PB1910160001</t>
+          <t>PB1908220002</t>
         </is>
       </c>
       <c r="C66" s="4" t="inlineStr">
         <is>
-          <t>汤浩</t>
+          <t>李洪志</t>
         </is>
       </c>
       <c r="D66" s="4" t="inlineStr">
         <is>
-          <t>15982</t>
+          <t>16036</t>
         </is>
       </c>
       <c r="E66" s="4" t="inlineStr">
         <is>
-          <t>安徽分部</t>
+          <t>江苏分部</t>
         </is>
       </c>
       <c r="F66" s="4" t="inlineStr">
@@ -7844,7 +7844,7 @@
         <v>0.0</v>
       </c>
       <c r="L66" s="4" t="n">
-        <v>60000.0</v>
+        <v>149985.0</v>
       </c>
       <c r="M66" s="4" t="inlineStr">
         <is>
@@ -7858,7 +7858,7 @@
       </c>
       <c r="O66" s="4" t="inlineStr">
         <is>
-          <t>无偿代打保证金 30天内退回公司基本户6万，</t>
+          <t>8.21到账基本户149985</t>
         </is>
       </c>
       <c r="P66" s="4" t="inlineStr">
@@ -7873,22 +7873,22 @@
       </c>
       <c r="R66" s="4" t="inlineStr">
         <is>
-          <t>hdw@zhonghui.com</t>
+          <t>zhanyp@zhonghui.com</t>
         </is>
       </c>
       <c r="S66" s="4" t="inlineStr">
         <is>
-          <t>黄大卫</t>
+          <t>詹亚平</t>
         </is>
       </c>
       <c r="T66" s="4" t="inlineStr">
         <is>
-          <t>2019-10-16 11:34:32</t>
+          <t>2019-08-22 10:33:48</t>
         </is>
       </c>
       <c r="U66" s="4" t="inlineStr">
         <is>
-          <t>2019-10-16 11:34:32</t>
+          <t>2019-08-22 10:33:48</t>
         </is>
       </c>
       <c r="V66" s="4" t="inlineStr">
@@ -7910,27 +7910,27 @@
     <row r="67">
       <c r="A67" s="4" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>69</t>
         </is>
       </c>
       <c r="B67" s="4" t="inlineStr">
         <is>
-          <t>PB1810260001</t>
+          <t>PB1908230001</t>
         </is>
       </c>
       <c r="C67" s="4" t="inlineStr">
         <is>
-          <t>郑伟</t>
+          <t>詹双双</t>
         </is>
       </c>
       <c r="D67" s="4" t="inlineStr">
         <is>
-          <t>15979</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E67" s="4" t="inlineStr">
         <is>
-          <t>总经办</t>
+          <t/>
         </is>
       </c>
       <c r="F67" s="4" t="inlineStr">
@@ -7955,14 +7955,14 @@
       </c>
       <c r="J67" s="4" t="inlineStr">
         <is>
-          <t>现金</t>
+          <t>徽商银行青年路支行</t>
         </is>
       </c>
       <c r="K67" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="L67" s="4" t="n">
-        <v>92.0</v>
+        <v>8.68</v>
       </c>
       <c r="M67" s="4" t="inlineStr">
         <is>
@@ -7976,7 +7976,7 @@
       </c>
       <c r="O67" s="4" t="inlineStr">
         <is>
-          <t>剩余92元以现金方式归还，5908元冲账</t>
+          <t>归还该笔借款未花完款项 8.68元</t>
         </is>
       </c>
       <c r="P67" s="4" t="inlineStr">
@@ -7991,22 +7991,22 @@
       </c>
       <c r="R67" s="4" t="inlineStr">
         <is>
-          <t>zw@zhonghui.com</t>
+          <t>zss@zhonghui.com</t>
         </is>
       </c>
       <c r="S67" s="4" t="inlineStr">
         <is>
-          <t>郑伟</t>
+          <t>詹双双</t>
         </is>
       </c>
       <c r="T67" s="4" t="inlineStr">
         <is>
-          <t>2018-10-26 13:43:30</t>
+          <t>2019-08-23 09:17:56</t>
         </is>
       </c>
       <c r="U67" s="4" t="inlineStr">
         <is>
-          <t>2018-10-26 13:43:30</t>
+          <t>2019-08-23 09:17:56</t>
         </is>
       </c>
       <c r="V67" s="4" t="inlineStr">
@@ -8028,27 +8028,27 @@
     <row r="68">
       <c r="A68" s="4" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>70</t>
         </is>
       </c>
       <c r="B68" s="4" t="inlineStr">
         <is>
-          <t>PB1811090001</t>
+          <t>PB1908230002</t>
         </is>
       </c>
       <c r="C68" s="4" t="inlineStr">
         <is>
-          <t>湖北分公司</t>
+          <t>詹双双</t>
         </is>
       </c>
       <c r="D68" s="4" t="inlineStr">
         <is>
-          <t>16003</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E68" s="4" t="inlineStr">
         <is>
-          <t>湖北分部</t>
+          <t/>
         </is>
       </c>
       <c r="F68" s="4" t="inlineStr">
@@ -8080,7 +8080,7 @@
         <v>0.0</v>
       </c>
       <c r="L68" s="4" t="n">
-        <v>100000.0</v>
+        <v>148.79</v>
       </c>
       <c r="M68" s="4" t="inlineStr">
         <is>
@@ -8094,7 +8094,7 @@
       </c>
       <c r="O68" s="4" t="inlineStr">
         <is>
-          <t>归还武汉至十堰铁路孝感至十堰段空调KTO2投标保证金</t>
+          <t>归还该笔款项未花完的借款 148.79</t>
         </is>
       </c>
       <c r="P68" s="4" t="inlineStr">
@@ -8109,22 +8109,22 @@
       </c>
       <c r="R68" s="4" t="inlineStr">
         <is>
-          <t>gaol@zhonghui.com</t>
+          <t>zss@zhonghui.com</t>
         </is>
       </c>
       <c r="S68" s="4" t="inlineStr">
         <is>
-          <t>高磊</t>
+          <t>詹双双</t>
         </is>
       </c>
       <c r="T68" s="4" t="inlineStr">
         <is>
-          <t>2018-11-09 16:01:01</t>
+          <t>2019-08-23 09:20:55</t>
         </is>
       </c>
       <c r="U68" s="4" t="inlineStr">
         <is>
-          <t>2018-11-09 16:01:01</t>
+          <t>2019-08-23 09:20:55</t>
         </is>
       </c>
       <c r="V68" s="4" t="inlineStr">
@@ -8146,17 +8146,17 @@
     <row r="69">
       <c r="A69" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B69" s="4" t="inlineStr">
         <is>
-          <t>PB1811130002</t>
+          <t>PB1908270001</t>
         </is>
       </c>
       <c r="C69" s="4" t="inlineStr">
         <is>
-          <t>张宏祥-承立志</t>
+          <t>中徽机电科技股份有限公司</t>
         </is>
       </c>
       <c r="D69" s="4" t="inlineStr">
@@ -8198,7 +8198,7 @@
         <v>0.0</v>
       </c>
       <c r="L69" s="4" t="n">
-        <v>30000.0</v>
+        <v>800000.0</v>
       </c>
       <c r="M69" s="4" t="inlineStr">
         <is>
@@ -8212,7 +8212,7 @@
       </c>
       <c r="O69" s="4" t="inlineStr">
         <is>
-          <t>从信达蓝湖郡调拨款项3万元到华地项目下还投标贷借款3万元</t>
+          <t>8.26退回基本户80万元</t>
         </is>
       </c>
       <c r="P69" s="4" t="inlineStr">
@@ -8227,22 +8227,22 @@
       </c>
       <c r="R69" s="4" t="inlineStr">
         <is>
-          <t>李婧</t>
+          <t>hdw@zhonghui.com</t>
         </is>
       </c>
       <c r="S69" s="4" t="inlineStr">
         <is>
-          <t>李婧</t>
+          <t>黄大卫</t>
         </is>
       </c>
       <c r="T69" s="4" t="inlineStr">
         <is>
-          <t>2018-11-13 13:52:13</t>
+          <t>2019-08-27 14:36:23</t>
         </is>
       </c>
       <c r="U69" s="4" t="inlineStr">
         <is>
-          <t>2018-11-13 13:52:13</t>
+          <t>2019-08-29 09:29:39</t>
         </is>
       </c>
       <c r="V69" s="4" t="inlineStr">
@@ -8264,27 +8264,27 @@
     <row r="70">
       <c r="A70" s="4" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>72</t>
         </is>
       </c>
       <c r="B70" s="4" t="inlineStr">
         <is>
-          <t>PB1812060001</t>
+          <t>PB1909050001</t>
         </is>
       </c>
       <c r="C70" s="4" t="inlineStr">
         <is>
-          <t>李兵</t>
+          <t>李洪志</t>
         </is>
       </c>
       <c r="D70" s="4" t="inlineStr">
         <is>
-          <t>15981</t>
+          <t>16036</t>
         </is>
       </c>
       <c r="E70" s="4" t="inlineStr">
         <is>
-          <t>营销中心</t>
+          <t>江苏分部</t>
         </is>
       </c>
       <c r="F70" s="4" t="inlineStr">
@@ -8309,14 +8309,14 @@
       </c>
       <c r="J70" s="4" t="inlineStr">
         <is>
-          <t>徽商银行青年路支行</t>
+          <t>胡冬梅</t>
         </is>
       </c>
       <c r="K70" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="L70" s="4" t="n">
-        <v>661.0</v>
+        <v>15.0</v>
       </c>
       <c r="M70" s="4" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
       </c>
       <c r="O70" s="4" t="inlineStr">
         <is>
-          <t>借款13500，结余661</t>
+          <t>9.15到胡冬梅卡上15元</t>
         </is>
       </c>
       <c r="P70" s="4" t="inlineStr">
@@ -8345,22 +8345,22 @@
       </c>
       <c r="R70" s="4" t="inlineStr">
         <is>
-          <t>李兵</t>
+          <t>zhanyp@zhonghui.com</t>
         </is>
       </c>
       <c r="S70" s="4" t="inlineStr">
         <is>
-          <t>李兵</t>
+          <t>詹亚平</t>
         </is>
       </c>
       <c r="T70" s="4" t="inlineStr">
         <is>
-          <t>2018-12-06 10:04:49</t>
+          <t>2019-09-05 16:55:30</t>
         </is>
       </c>
       <c r="U70" s="4" t="inlineStr">
         <is>
-          <t>2018-12-06 10:04:49</t>
+          <t>2019-09-05 16:55:30</t>
         </is>
       </c>
       <c r="V70" s="4" t="inlineStr">
@@ -8382,27 +8382,27 @@
     <row r="71">
       <c r="A71" s="4" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>73</t>
         </is>
       </c>
       <c r="B71" s="4" t="inlineStr">
         <is>
-          <t>PB1902220001</t>
+          <t>PB1909090001</t>
         </is>
       </c>
       <c r="C71" s="4" t="inlineStr">
         <is>
-          <t>承立志</t>
+          <t>杨东明</t>
         </is>
       </c>
       <c r="D71" s="4" t="inlineStr">
         <is>
-          <t>15982</t>
+          <t>16000</t>
         </is>
       </c>
       <c r="E71" s="4" t="inlineStr">
         <is>
-          <t>安徽分部</t>
+          <t>山东分部</t>
         </is>
       </c>
       <c r="F71" s="4" t="inlineStr">
@@ -8448,7 +8448,7 @@
       </c>
       <c r="O71" s="4" t="inlineStr">
         <is>
-          <t>秀山信达城C地块项目智能化工程投标保证金</t>
+          <t>投标贷退回</t>
         </is>
       </c>
       <c r="P71" s="4" t="inlineStr">
@@ -8463,22 +8463,22 @@
       </c>
       <c r="R71" s="4" t="inlineStr">
         <is>
-          <t>邢芳</t>
+          <t>ljl@zhonghui.com</t>
         </is>
       </c>
       <c r="S71" s="4" t="inlineStr">
         <is>
-          <t>邢芳</t>
+          <t>李靖亮</t>
         </is>
       </c>
       <c r="T71" s="4" t="inlineStr">
         <is>
-          <t>2019-02-22 15:49:58</t>
+          <t>2019-09-09 10:08:21</t>
         </is>
       </c>
       <c r="U71" s="4" t="inlineStr">
         <is>
-          <t>2019-02-22 15:49:58</t>
+          <t>2019-09-09 10:08:21</t>
         </is>
       </c>
       <c r="V71" s="4" t="inlineStr">
@@ -8500,27 +8500,27 @@
     <row r="72">
       <c r="A72" s="4" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>74</t>
         </is>
       </c>
       <c r="B72" s="4" t="inlineStr">
         <is>
-          <t>PB1902260001</t>
+          <t>PB1909180001</t>
         </is>
       </c>
       <c r="C72" s="4" t="inlineStr">
         <is>
-          <t>檀经理</t>
+          <t>詹双双</t>
         </is>
       </c>
       <c r="D72" s="4" t="inlineStr">
         <is>
-          <t>15982</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E72" s="4" t="inlineStr">
         <is>
-          <t>安徽分部</t>
+          <t/>
         </is>
       </c>
       <c r="F72" s="4" t="inlineStr">
@@ -8545,14 +8545,14 @@
       </c>
       <c r="J72" s="4" t="inlineStr">
         <is>
-          <t>胡冬梅</t>
+          <t>徽商银行青年路支行</t>
         </is>
       </c>
       <c r="K72" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="L72" s="4" t="n">
-        <v>20000.0</v>
+        <v>15.4</v>
       </c>
       <c r="M72" s="4" t="inlineStr">
         <is>
@@ -8566,7 +8566,7 @@
       </c>
       <c r="O72" s="4" t="inlineStr">
         <is>
-          <t>2019年2月25日转到胡冬梅账户11394元，招标机构退回9606</t>
+          <t>归还该笔借款未用完的款项（15.4元）</t>
         </is>
       </c>
       <c r="P72" s="4" t="inlineStr">
@@ -8581,22 +8581,22 @@
       </c>
       <c r="R72" s="4" t="inlineStr">
         <is>
-          <t>李婧</t>
+          <t>zss@zhonghui.com</t>
         </is>
       </c>
       <c r="S72" s="4" t="inlineStr">
         <is>
-          <t>李婧</t>
+          <t>詹双双</t>
         </is>
       </c>
       <c r="T72" s="4" t="inlineStr">
         <is>
-          <t>2019-02-26 10:21:52</t>
+          <t>2019-09-18 16:41:10</t>
         </is>
       </c>
       <c r="U72" s="4" t="inlineStr">
         <is>
-          <t>2019-02-26 10:24:00</t>
+          <t>2019-09-18 16:41:10</t>
         </is>
       </c>
       <c r="V72" s="4" t="inlineStr">
@@ -8618,27 +8618,27 @@
     <row r="73">
       <c r="A73" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>75</t>
         </is>
       </c>
       <c r="B73" s="4" t="inlineStr">
         <is>
-          <t>PB1903060001</t>
+          <t>PB1909190001</t>
         </is>
       </c>
       <c r="C73" s="4" t="inlineStr">
         <is>
-          <t>朱晓磊</t>
+          <t>邓声全</t>
         </is>
       </c>
       <c r="D73" s="4" t="inlineStr">
         <is>
-          <t>15982</t>
+          <t>16000</t>
         </is>
       </c>
       <c r="E73" s="4" t="inlineStr">
         <is>
-          <t>安徽分部</t>
+          <t>山东分部</t>
         </is>
       </c>
       <c r="F73" s="4" t="inlineStr">
@@ -8670,7 +8670,7 @@
         <v>0.0</v>
       </c>
       <c r="L73" s="4" t="n">
-        <v>100000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="M73" s="4" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
       </c>
       <c r="O73" s="4" t="inlineStr">
         <is>
-          <t>保证金退回作为客户归还投标贷借款</t>
+          <t>投标贷保证金退回</t>
         </is>
       </c>
       <c r="P73" s="4" t="inlineStr">
@@ -8699,22 +8699,22 @@
       </c>
       <c r="R73" s="4" t="inlineStr">
         <is>
-          <t>许建</t>
+          <t>ljl@zhonghui.com</t>
         </is>
       </c>
       <c r="S73" s="4" t="inlineStr">
         <is>
-          <t>许建</t>
+          <t>李靖亮</t>
         </is>
       </c>
       <c r="T73" s="4" t="inlineStr">
         <is>
-          <t>2019-03-06 09:42:15</t>
+          <t>2019-09-19 10:32:51</t>
         </is>
       </c>
       <c r="U73" s="4" t="inlineStr">
         <is>
-          <t>2019-03-06 09:46:15</t>
+          <t>2019-09-19 10:32:51</t>
         </is>
       </c>
       <c r="V73" s="4" t="inlineStr">
@@ -8736,27 +8736,27 @@
     <row r="74">
       <c r="A74" s="4" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>76</t>
         </is>
       </c>
       <c r="B74" s="4" t="inlineStr">
         <is>
-          <t>PB1904090001</t>
+          <t>PB1909210001</t>
         </is>
       </c>
       <c r="C74" s="4" t="inlineStr">
         <is>
-          <t>檀经理</t>
+          <t>李洪志</t>
         </is>
       </c>
       <c r="D74" s="4" t="inlineStr">
         <is>
-          <t>15982</t>
+          <t>16036</t>
         </is>
       </c>
       <c r="E74" s="4" t="inlineStr">
         <is>
-          <t>安徽分部</t>
+          <t>江苏分部</t>
         </is>
       </c>
       <c r="F74" s="4" t="inlineStr">
@@ -8788,7 +8788,7 @@
         <v>0.0</v>
       </c>
       <c r="L74" s="4" t="n">
-        <v>12238.0</v>
+        <v>10000.0</v>
       </c>
       <c r="M74" s="4" t="inlineStr">
         <is>
@@ -8802,7 +8802,7 @@
       </c>
       <c r="O74" s="4" t="inlineStr">
         <is>
-          <t>2019年4月8日回至基本户工程款428227.35元</t>
+          <t>9.11回汇票10000元整</t>
         </is>
       </c>
       <c r="P74" s="4" t="inlineStr">
@@ -8817,22 +8817,22 @@
       </c>
       <c r="R74" s="4" t="inlineStr">
         <is>
-          <t>李婧</t>
+          <t>zhanyp@zhonghui.com</t>
         </is>
       </c>
       <c r="S74" s="4" t="inlineStr">
         <is>
-          <t>李婧</t>
+          <t>詹亚平</t>
         </is>
       </c>
       <c r="T74" s="4" t="inlineStr">
         <is>
-          <t>2019-04-09 14:48:36</t>
+          <t>2019-09-21 09:18:49</t>
         </is>
       </c>
       <c r="U74" s="4" t="inlineStr">
         <is>
-          <t>2019-04-09 14:48:36</t>
+          <t>2019-09-21 09:18:49</t>
         </is>
       </c>
       <c r="V74" s="4" t="inlineStr">
@@ -8854,27 +8854,27 @@
     <row r="75">
       <c r="A75" s="4" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>78</t>
         </is>
       </c>
       <c r="B75" s="4" t="inlineStr">
         <is>
-          <t>PB1905290001</t>
+          <t>PB1909230002</t>
         </is>
       </c>
       <c r="C75" s="4" t="inlineStr">
         <is>
-          <t>杨海法</t>
+          <t>詹双双</t>
         </is>
       </c>
       <c r="D75" s="4" t="inlineStr">
         <is>
-          <t>16001</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E75" s="4" t="inlineStr">
         <is>
-          <t>河北分部</t>
+          <t/>
         </is>
       </c>
       <c r="F75" s="4" t="inlineStr">
@@ -8906,7 +8906,7 @@
         <v>0.0</v>
       </c>
       <c r="L75" s="4" t="n">
-        <v>100000.0</v>
+        <v>23.74</v>
       </c>
       <c r="M75" s="4" t="inlineStr">
         <is>
@@ -8920,7 +8920,7 @@
       </c>
       <c r="O75" s="4" t="inlineStr">
         <is>
-          <t>工程款还借款</t>
+          <t>归还该笔借款未花完的款项23.74元</t>
         </is>
       </c>
       <c r="P75" s="4" t="inlineStr">
@@ -8935,22 +8935,22 @@
       </c>
       <c r="R75" s="4" t="inlineStr">
         <is>
-          <t>ljl@zhonghui.com</t>
+          <t>zss@zhonghui.com</t>
         </is>
       </c>
       <c r="S75" s="4" t="inlineStr">
         <is>
-          <t>李靖亮</t>
+          <t>詹双双</t>
         </is>
       </c>
       <c r="T75" s="4" t="inlineStr">
         <is>
-          <t>2019-05-29 15:17:08</t>
+          <t>2019-09-23 15:02:47</t>
         </is>
       </c>
       <c r="U75" s="4" t="inlineStr">
         <is>
-          <t>2019-05-29 15:17:08</t>
+          <t>2019-09-23 15:02:47</t>
         </is>
       </c>
       <c r="V75" s="4" t="inlineStr">
@@ -8972,27 +8972,27 @@
     <row r="76">
       <c r="A76" s="4" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>79</t>
         </is>
       </c>
       <c r="B76" s="4" t="inlineStr">
         <is>
-          <t>PB1906060001</t>
+          <t>PB1909290001</t>
         </is>
       </c>
       <c r="C76" s="4" t="inlineStr">
         <is>
-          <t>晁振</t>
+          <t>赵铿</t>
         </is>
       </c>
       <c r="D76" s="4" t="inlineStr">
         <is>
-          <t>16000</t>
+          <t>16003</t>
         </is>
       </c>
       <c r="E76" s="4" t="inlineStr">
         <is>
-          <t>山东分部</t>
+          <t>湖北分部</t>
         </is>
       </c>
       <c r="F76" s="4" t="inlineStr">
@@ -9024,7 +9024,7 @@
         <v>0.0</v>
       </c>
       <c r="L76" s="4" t="n">
-        <v>13000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="M76" s="4" t="inlineStr">
         <is>
@@ -9038,7 +9038,7 @@
       </c>
       <c r="O76" s="4" t="inlineStr">
         <is>
-          <t>投标贷保证金归还借款</t>
+          <t>归还公司投标贷借款，</t>
         </is>
       </c>
       <c r="P76" s="4" t="inlineStr">
@@ -9053,22 +9053,22 @@
       </c>
       <c r="R76" s="4" t="inlineStr">
         <is>
-          <t>ljl@zhonghui.com</t>
+          <t>gaol@zhonghui.com</t>
         </is>
       </c>
       <c r="S76" s="4" t="inlineStr">
         <is>
-          <t>李靖亮</t>
+          <t>高磊</t>
         </is>
       </c>
       <c r="T76" s="4" t="inlineStr">
         <is>
-          <t>2019-06-06 13:42:47</t>
+          <t>2019-09-29 09:26:02</t>
         </is>
       </c>
       <c r="U76" s="4" t="inlineStr">
         <is>
-          <t>2019-06-06 13:42:47</t>
+          <t>2019-09-29 09:26:02</t>
         </is>
       </c>
       <c r="V76" s="4" t="inlineStr">
@@ -9090,12 +9090,12 @@
     <row r="77">
       <c r="A77" s="4" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>80</t>
         </is>
       </c>
       <c r="B77" s="4" t="inlineStr">
         <is>
-          <t>PB1906170001</t>
+          <t>PB1910100001</t>
         </is>
       </c>
       <c r="C77" s="4" t="inlineStr">
@@ -9142,7 +9142,7 @@
         <v>0.0</v>
       </c>
       <c r="L77" s="4" t="n">
-        <v>3.2</v>
+        <v>1614.53</v>
       </c>
       <c r="M77" s="4" t="inlineStr">
         <is>
@@ -9156,7 +9156,7 @@
       </c>
       <c r="O77" s="4" t="inlineStr">
         <is>
-          <t>归还此借款未花完的剩余款项 3.2元</t>
+          <t>归还该笔借款未花完的款项（1614.53元</t>
         </is>
       </c>
       <c r="P77" s="4" t="inlineStr">
@@ -9181,12 +9181,12 @@
       </c>
       <c r="T77" s="4" t="inlineStr">
         <is>
-          <t>2019-06-17 10:18:16</t>
+          <t>2019-10-10 14:39:40</t>
         </is>
       </c>
       <c r="U77" s="4" t="inlineStr">
         <is>
-          <t>2019-06-17 10:18:16</t>
+          <t>2019-10-10 14:39:40</t>
         </is>
       </c>
       <c r="V77" s="4" t="inlineStr">
@@ -9208,27 +9208,27 @@
     <row r="78">
       <c r="A78" s="4" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>81</t>
         </is>
       </c>
       <c r="B78" s="4" t="inlineStr">
         <is>
-          <t>PB1907050001</t>
+          <t>PB1910140001</t>
         </is>
       </c>
       <c r="C78" s="4" t="inlineStr">
         <is>
-          <t>檀作亮</t>
+          <t>于伟林</t>
         </is>
       </c>
       <c r="D78" s="4" t="inlineStr">
         <is>
-          <t>15982</t>
+          <t>16000</t>
         </is>
       </c>
       <c r="E78" s="4" t="inlineStr">
         <is>
-          <t>安徽分部</t>
+          <t>山东分部</t>
         </is>
       </c>
       <c r="F78" s="4" t="inlineStr">
@@ -9260,7 +9260,7 @@
         <v>0.0</v>
       </c>
       <c r="L78" s="4" t="n">
-        <v>100000.0</v>
+        <v>30000.0</v>
       </c>
       <c r="M78" s="4" t="inlineStr">
         <is>
@@ -9274,7 +9274,7 @@
       </c>
       <c r="O78" s="4" t="inlineStr">
         <is>
-          <t>檀作亮6.12公司借入100000</t>
+          <t>投标贷退回</t>
         </is>
       </c>
       <c r="P78" s="4" t="inlineStr">
@@ -9289,22 +9289,22 @@
       </c>
       <c r="R78" s="4" t="inlineStr">
         <is>
-          <t>曾文韬</t>
+          <t>ljl@zhonghui.com</t>
         </is>
       </c>
       <c r="S78" s="4" t="inlineStr">
         <is>
-          <t>曾文韬</t>
+          <t>李靖亮</t>
         </is>
       </c>
       <c r="T78" s="4" t="inlineStr">
         <is>
-          <t>2019-07-05 09:47:18</t>
+          <t>2019-10-14 13:39:44</t>
         </is>
       </c>
       <c r="U78" s="4" t="inlineStr">
         <is>
-          <t>2019-07-05 09:47:18</t>
+          <t>2019-10-14 13:39:44</t>
         </is>
       </c>
       <c r="V78" s="4" t="inlineStr">
@@ -9326,27 +9326,27 @@
     <row r="79">
       <c r="A79" s="4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>82</t>
         </is>
       </c>
       <c r="B79" s="4" t="inlineStr">
         <is>
-          <t>PB1907080001</t>
+          <t>PB1910140002</t>
         </is>
       </c>
       <c r="C79" s="4" t="inlineStr">
         <is>
-          <t>刘保</t>
+          <t>陈春华</t>
         </is>
       </c>
       <c r="D79" s="4" t="inlineStr">
         <is>
-          <t>15982</t>
+          <t>16000</t>
         </is>
       </c>
       <c r="E79" s="4" t="inlineStr">
         <is>
-          <t>安徽分部</t>
+          <t>山东分部</t>
         </is>
       </c>
       <c r="F79" s="4" t="inlineStr">
@@ -9378,7 +9378,7 @@
         <v>0.0</v>
       </c>
       <c r="L79" s="4" t="n">
-        <v>65000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="M79" s="4" t="inlineStr">
         <is>
@@ -9392,7 +9392,7 @@
       </c>
       <c r="O79" s="4" t="inlineStr">
         <is>
-          <t>投标贷还款</t>
+          <t>投标贷退回</t>
         </is>
       </c>
       <c r="P79" s="4" t="inlineStr">
@@ -9407,22 +9407,22 @@
       </c>
       <c r="R79" s="4" t="inlineStr">
         <is>
-          <t>曾文韬</t>
+          <t>ljl@zhonghui.com</t>
         </is>
       </c>
       <c r="S79" s="4" t="inlineStr">
         <is>
-          <t>曾文韬</t>
+          <t>李靖亮</t>
         </is>
       </c>
       <c r="T79" s="4" t="inlineStr">
         <is>
-          <t>2019-07-08 09:32:26</t>
+          <t>2019-10-14 13:41:38</t>
         </is>
       </c>
       <c r="U79" s="4" t="inlineStr">
         <is>
-          <t>2019-07-08 09:32:26</t>
+          <t>2019-10-14 13:42:43</t>
         </is>
       </c>
       <c r="V79" s="4" t="inlineStr">
@@ -9444,27 +9444,27 @@
     <row r="80">
       <c r="A80" s="4" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>83</t>
         </is>
       </c>
       <c r="B80" s="4" t="inlineStr">
         <is>
-          <t>PB1907100001</t>
+          <t>PB1910140003</t>
         </is>
       </c>
       <c r="C80" s="4" t="inlineStr">
         <is>
-          <t>詹双双</t>
+          <t>庄朝阳</t>
         </is>
       </c>
       <c r="D80" s="4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16000</t>
         </is>
       </c>
       <c r="E80" s="4" t="inlineStr">
         <is>
-          <t/>
+          <t>山东分部</t>
         </is>
       </c>
       <c r="F80" s="4" t="inlineStr">
@@ -9496,7 +9496,7 @@
         <v>0.0</v>
       </c>
       <c r="L80" s="4" t="n">
-        <v>26.34</v>
+        <v>80000.0</v>
       </c>
       <c r="M80" s="4" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
       </c>
       <c r="O80" s="4" t="inlineStr">
         <is>
-          <t>归还该笔借款未用完的资金计26.34元</t>
+          <t>投标贷退回</t>
         </is>
       </c>
       <c r="P80" s="4" t="inlineStr">
@@ -9525,22 +9525,22 @@
       </c>
       <c r="R80" s="4" t="inlineStr">
         <is>
-          <t>zss@zhonghui.com</t>
+          <t>ljl@zhonghui.com</t>
         </is>
       </c>
       <c r="S80" s="4" t="inlineStr">
         <is>
-          <t>詹双双</t>
+          <t>李靖亮</t>
         </is>
       </c>
       <c r="T80" s="4" t="inlineStr">
         <is>
-          <t>2019-07-10 16:35:39</t>
+          <t>2019-10-14 13:42:21</t>
         </is>
       </c>
       <c r="U80" s="4" t="inlineStr">
         <is>
-          <t>2019-07-10 16:35:39</t>
+          <t>2019-10-14 13:43:33</t>
         </is>
       </c>
       <c r="V80" s="4" t="inlineStr">
@@ -9562,27 +9562,27 @@
     <row r="81">
       <c r="A81" s="4" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>84</t>
         </is>
       </c>
       <c r="B81" s="4" t="inlineStr">
         <is>
-          <t>PB1907150002</t>
+          <t>PB1910160001</t>
         </is>
       </c>
       <c r="C81" s="4" t="inlineStr">
         <is>
-          <t>李刚</t>
+          <t>汤浩</t>
         </is>
       </c>
       <c r="D81" s="4" t="inlineStr">
         <is>
-          <t>16003</t>
+          <t>15982</t>
         </is>
       </c>
       <c r="E81" s="4" t="inlineStr">
         <is>
-          <t>湖北分部</t>
+          <t>安徽分部</t>
         </is>
       </c>
       <c r="F81" s="4" t="inlineStr">
@@ -9614,7 +9614,7 @@
         <v>0.0</v>
       </c>
       <c r="L81" s="4" t="n">
-        <v>84120.0</v>
+        <v>60000.0</v>
       </c>
       <c r="M81" s="4" t="inlineStr">
         <is>
@@ -9628,7 +9628,7 @@
       </c>
       <c r="O81" s="4" t="inlineStr">
         <is>
-          <t>南方工业科技贸易有限公司退退回投标保证金84120</t>
+          <t>无偿代打保证金 30天内退回公司基本户6万，</t>
         </is>
       </c>
       <c r="P81" s="4" t="inlineStr">
@@ -9643,22 +9643,22 @@
       </c>
       <c r="R81" s="4" t="inlineStr">
         <is>
-          <t>gaol@zhonghui.com</t>
+          <t>hdw@zhonghui.com</t>
         </is>
       </c>
       <c r="S81" s="4" t="inlineStr">
         <is>
-          <t>高磊</t>
+          <t>黄大卫</t>
         </is>
       </c>
       <c r="T81" s="4" t="inlineStr">
         <is>
-          <t>2019-07-15 21:31:50</t>
+          <t>2019-10-16 11:34:32</t>
         </is>
       </c>
       <c r="U81" s="4" t="inlineStr">
         <is>
-          <t>2019-07-15 21:31:50</t>
+          <t>2019-10-16 11:34:32</t>
         </is>
       </c>
       <c r="V81" s="4" t="inlineStr">
@@ -9680,27 +9680,27 @@
     <row r="82">
       <c r="A82" s="4" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>85</t>
         </is>
       </c>
       <c r="B82" s="4" t="inlineStr">
         <is>
-          <t>PB1907160001</t>
+          <t>PB1910230001</t>
         </is>
       </c>
       <c r="C82" s="4" t="inlineStr">
         <is>
-          <t>于伟林</t>
+          <t>中徽机电科技股份有限公司</t>
         </is>
       </c>
       <c r="D82" s="4" t="inlineStr">
         <is>
-          <t>16000</t>
+          <t>15982</t>
         </is>
       </c>
       <c r="E82" s="4" t="inlineStr">
         <is>
-          <t>山东分部</t>
+          <t>安徽分部</t>
         </is>
       </c>
       <c r="F82" s="4" t="inlineStr">
@@ -9732,7 +9732,7 @@
         <v>0.0</v>
       </c>
       <c r="L82" s="4" t="n">
-        <v>20000.0</v>
+        <v>500000.0</v>
       </c>
       <c r="M82" s="4" t="inlineStr">
         <is>
@@ -9746,7 +9746,7 @@
       </c>
       <c r="O82" s="4" t="inlineStr">
         <is>
-          <t>投标贷保证金退回</t>
+          <t>会泽县2019年村级光伏扶贫电站建设项目投标保证金</t>
         </is>
       </c>
       <c r="P82" s="4" t="inlineStr">
@@ -9761,22 +9761,22 @@
       </c>
       <c r="R82" s="4" t="inlineStr">
         <is>
-          <t>ljl@zhonghui.com</t>
+          <t>hdw@zhonghui.com</t>
         </is>
       </c>
       <c r="S82" s="4" t="inlineStr">
         <is>
-          <t>李靖亮</t>
+          <t>黄大卫</t>
         </is>
       </c>
       <c r="T82" s="4" t="inlineStr">
         <is>
-          <t>2019-07-16 14:10:23</t>
+          <t>2019-10-23 16:41:47</t>
         </is>
       </c>
       <c r="U82" s="4" t="inlineStr">
         <is>
-          <t>2019-07-16 14:10:23</t>
+          <t>2019-10-23 16:41:47</t>
         </is>
       </c>
       <c r="V82" s="4" t="inlineStr">
@@ -9798,17 +9798,17 @@
     <row r="83">
       <c r="A83" s="4" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>86</t>
         </is>
       </c>
       <c r="B83" s="4" t="inlineStr">
         <is>
-          <t>PB1907310001</t>
+          <t>PB1910300001</t>
         </is>
       </c>
       <c r="C83" s="4" t="inlineStr">
         <is>
-          <t>孙宝庆</t>
+          <t>孙希成</t>
         </is>
       </c>
       <c r="D83" s="4" t="inlineStr">
@@ -9850,7 +9850,7 @@
         <v>0.0</v>
       </c>
       <c r="L83" s="4" t="n">
-        <v>360000.0</v>
+        <v>100000.0</v>
       </c>
       <c r="M83" s="4" t="inlineStr">
         <is>
@@ -9864,7 +9864,7 @@
       </c>
       <c r="O83" s="4" t="inlineStr">
         <is>
-          <t>归还公司借款</t>
+          <t>投标贷退回</t>
         </is>
       </c>
       <c r="P83" s="4" t="inlineStr">
@@ -9889,12 +9889,12 @@
       </c>
       <c r="T83" s="4" t="inlineStr">
         <is>
-          <t>2019-07-31 14:43:25</t>
+          <t>2019-10-30 09:51:53</t>
         </is>
       </c>
       <c r="U83" s="4" t="inlineStr">
         <is>
-          <t>2019-07-31 14:44:14</t>
+          <t>2019-10-30 09:51:53</t>
         </is>
       </c>
       <c r="V83" s="4" t="inlineStr">
@@ -9916,17 +9916,17 @@
     <row r="84">
       <c r="A84" s="4" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>87</t>
         </is>
       </c>
       <c r="B84" s="4" t="inlineStr">
         <is>
-          <t>PB1910300001</t>
+          <t>PB1910300002</t>
         </is>
       </c>
       <c r="C84" s="4" t="inlineStr">
         <is>
-          <t>孙希成</t>
+          <t>杨东明</t>
         </is>
       </c>
       <c r="D84" s="4" t="inlineStr">
@@ -9968,7 +9968,7 @@
         <v>0.0</v>
       </c>
       <c r="L84" s="4" t="n">
-        <v>100000.0</v>
+        <v>20000.0</v>
       </c>
       <c r="M84" s="4" t="inlineStr">
         <is>
@@ -10007,12 +10007,12 @@
       </c>
       <c r="T84" s="4" t="inlineStr">
         <is>
-          <t>2019-10-30 09:51:53</t>
+          <t>2019-10-30 09:53:06</t>
         </is>
       </c>
       <c r="U84" s="4" t="inlineStr">
         <is>
-          <t>2019-10-30 09:51:53</t>
+          <t>2019-10-30 09:53:06</t>
         </is>
       </c>
       <c r="V84" s="4" t="inlineStr">
@@ -10034,17 +10034,17 @@
     <row r="85">
       <c r="A85" s="4" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>88</t>
         </is>
       </c>
       <c r="B85" s="4" t="inlineStr">
         <is>
-          <t>PB1910300002</t>
+          <t>PB1911060001</t>
         </is>
       </c>
       <c r="C85" s="4" t="inlineStr">
         <is>
-          <t>杨东明</t>
+          <t>赵红建</t>
         </is>
       </c>
       <c r="D85" s="4" t="inlineStr">
@@ -10086,7 +10086,7 @@
         <v>0.0</v>
       </c>
       <c r="L85" s="4" t="n">
-        <v>20000.0</v>
+        <v>50000.0</v>
       </c>
       <c r="M85" s="4" t="inlineStr">
         <is>
@@ -10125,12 +10125,12 @@
       </c>
       <c r="T85" s="4" t="inlineStr">
         <is>
-          <t>2019-10-30 09:53:06</t>
+          <t>2019-11-06 10:16:05</t>
         </is>
       </c>
       <c r="U85" s="4" t="inlineStr">
         <is>
-          <t>2019-10-30 09:53:06</t>
+          <t>2019-11-06 10:16:05</t>
         </is>
       </c>
       <c r="V85" s="4" t="inlineStr">
@@ -10144,6 +10144,124 @@
         </is>
       </c>
       <c r="X85" s="4" t="inlineStr">
+        <is>
+          <t>EPMS</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="4" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="B86" s="4" t="inlineStr">
+        <is>
+          <t>PB1911070001</t>
+        </is>
+      </c>
+      <c r="C86" s="4" t="inlineStr">
+        <is>
+          <t>合肥优铂商贸有限公司</t>
+        </is>
+      </c>
+      <c r="D86" s="4" t="inlineStr">
+        <is>
+          <t>15981</t>
+        </is>
+      </c>
+      <c r="E86" s="4" t="inlineStr">
+        <is>
+          <t>发展中心</t>
+        </is>
+      </c>
+      <c r="F86" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G86" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H86" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="I86" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J86" s="4" t="inlineStr">
+        <is>
+          <t>胡冬梅</t>
+        </is>
+      </c>
+      <c r="K86" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L86" s="4" t="n">
+        <v>5000.0</v>
+      </c>
+      <c r="M86" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N86" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O86" s="4" t="inlineStr">
+        <is>
+          <t>安徽中医药大学空调维修保养投标贷，还公司借款5000，另130元利息</t>
+        </is>
+      </c>
+      <c r="P86" s="4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q86" s="4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R86" s="4" t="inlineStr">
+        <is>
+          <t>hdw@zhonghui.com</t>
+        </is>
+      </c>
+      <c r="S86" s="4" t="inlineStr">
+        <is>
+          <t>黄大卫</t>
+        </is>
+      </c>
+      <c r="T86" s="4" t="inlineStr">
+        <is>
+          <t>2019-11-07 13:28:37</t>
+        </is>
+      </c>
+      <c r="U86" s="4" t="inlineStr">
+        <is>
+          <t>2019-11-07 13:28:37</t>
+        </is>
+      </c>
+      <c r="V86" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="W86" s="4" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="X86" s="4" t="inlineStr">
         <is>
           <t>EPMS</t>
         </is>
